--- a/P3DFps.xlsx
+++ b/P3DFps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\Potato3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8965D0A4-1967-4BAD-8DFA-EF2517E7197A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D53569-A3C7-429E-9CE6-D84510EB81DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6180" yWindow="2205" windowWidth="21570" windowHeight="11370" xr2:uid="{2904C00D-6B2E-49C9-A39A-1A4D989C3045}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2904C00D-6B2E-49C9-A39A-1A4D989C3045}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>BSP</t>
   </si>
@@ -58,6 +58,9 @@
   </si>
   <si>
     <t>V &lt;&lt; vmask</t>
+  </si>
+  <si>
+    <t>Spanbuffer</t>
   </si>
 </sst>
 </file>
@@ -415,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9F04DC-EF96-45BA-9879-6DBCF76CA793}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,7 +447,7 @@
         <v>305</v>
       </c>
       <c r="C2" s="1">
-        <f t="shared" ref="C2:C9" si="0">B2/30</f>
+        <f t="shared" ref="C2:C10" si="0">B2/30</f>
         <v>10.166666666666666</v>
       </c>
       <c r="D2" s="2">
@@ -461,7 +464,7 @@
         <v>10.5</v>
       </c>
       <c r="D3" s="2">
-        <f t="shared" ref="D2:D8" si="1">B3/$B$2</f>
+        <f t="shared" ref="D3:D8" si="1">B3/$B$2</f>
         <v>1.0327868852459017</v>
       </c>
     </row>
@@ -559,6 +562,22 @@
       <c r="D9" s="2">
         <f>B9/$B$2</f>
         <v>1.0786885245901638</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>236</v>
+      </c>
+      <c r="C10" s="1">
+        <f t="shared" si="0"/>
+        <v>7.8666666666666663</v>
+      </c>
+      <c r="D10" s="2">
+        <f>B10/$B$2</f>
+        <v>0.77377049180327873</v>
       </c>
     </row>
   </sheetData>

--- a/P3DFps.xlsx
+++ b/P3DFps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\Potato3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D53569-A3C7-429E-9CE6-D84510EB81DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B2D8F0-D1F6-4EA7-84F1-1DCA839357CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2904C00D-6B2E-49C9-A39A-1A4D989C3045}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>BSP</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>Spanbuffer</t>
+  </si>
+  <si>
+    <t>Clip spans</t>
   </si>
 </sst>
 </file>
@@ -418,10 +421,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9F04DC-EF96-45BA-9879-6DBCF76CA793}">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -447,7 +450,7 @@
         <v>305</v>
       </c>
       <c r="C2" s="1">
-        <f t="shared" ref="C2:C10" si="0">B2/30</f>
+        <f t="shared" ref="C2:C11" si="0">B2/30</f>
         <v>10.166666666666666</v>
       </c>
       <c r="D2" s="2">
@@ -578,6 +581,22 @@
       <c r="D10" s="2">
         <f>B10/$B$2</f>
         <v>0.77377049180327873</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>230</v>
+      </c>
+      <c r="C11" s="1">
+        <f t="shared" si="0"/>
+        <v>7.666666666666667</v>
+      </c>
+      <c r="D11" s="2">
+        <f>B11/$B$2</f>
+        <v>0.75409836065573765</v>
       </c>
     </row>
   </sheetData>

--- a/P3DFps.xlsx
+++ b/P3DFps.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\Potato3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B2D8F0-D1F6-4EA7-84F1-1DCA839357CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130E1E26-2203-4DD0-A2BD-834169B07FC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2904C00D-6B2E-49C9-A39A-1A4D989C3045}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
   <si>
     <t>BSP</t>
   </si>
@@ -64,6 +65,36 @@
   </si>
   <si>
     <t>Clip spans</t>
+  </si>
+  <si>
+    <t>DrawSpans</t>
+  </si>
+  <si>
+    <t>Clip/DrawSpans</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>length</t>
+  </si>
+  <si>
+    <t>Clips spans</t>
+  </si>
+  <si>
+    <t>Clips spans recursive</t>
+  </si>
+  <si>
+    <t>Clip spans merge</t>
+  </si>
+  <si>
+    <t>Remove spans</t>
+  </si>
+  <si>
+    <t>s_opening</t>
   </si>
 </sst>
 </file>
@@ -122,6 +153,3767 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>595</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>548</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B2F5-42F8-B5BB-EB4E7425A2DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>381</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B2F5-42F8-B5BB-EB4E7425A2DE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1428244735"/>
+        <c:axId val="1432629231"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1428244735"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1432629231"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1432629231"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1428244735"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$14:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>548</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CA75-4B1C-83D3-6E7B327C06B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$14:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>529</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>172</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CA75-4B1C-83D3-6E7B327C06B0}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1201874191"/>
+        <c:axId val="1202515039"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1201874191"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1202515039"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1202515039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1201874191"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$19:$B$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>594</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-FA03-4438-B6D1-B7E65D9ED6F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$18</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$19:$D$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>320</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>528</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>126</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-FA03-4438-B6D1-B7E65D9ED6F2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1101721151"/>
+        <c:axId val="1432645039"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1101721151"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1432645039"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1432645039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1101721151"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>min</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$B$24:$B$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2EB9-4AB4-AC2F-3C46382A68A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet2!$D$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>length</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet2!$D$24:$D$26</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>720</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>510</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>702</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2EB9-4AB4-AC2F-3C46382A68A5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="1382072879"/>
+        <c:axId val="1207900943"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1382072879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1207900943"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1207900943"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1382072879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>80962</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5ABAB70D-50A6-4D53-BE56-59BAAEC5E2B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83580D36-5889-4827-A108-62958AE62F05}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>71436</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{96710EEE-182D-4E63-9299-13ECC7BCB852}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>585786</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>495299</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03C51E1D-695A-43CB-9854-79E21A6C0DC8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -421,10 +4213,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9F04DC-EF96-45BA-9879-6DBCF76CA793}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,7 +4242,7 @@
         <v>305</v>
       </c>
       <c r="C2" s="1">
-        <f t="shared" ref="C2:C11" si="0">B2/30</f>
+        <f t="shared" ref="C2:C19" si="0">B2/30</f>
         <v>10.166666666666666</v>
       </c>
       <c r="D2" s="2">
@@ -563,7 +4355,7 @@
         <v>10.966666666666667</v>
       </c>
       <c r="D9" s="2">
-        <f>B9/$B$2</f>
+        <f t="shared" ref="D9:D19" si="2">B9/$B$2</f>
         <v>1.0786885245901638</v>
       </c>
     </row>
@@ -579,7 +4371,7 @@
         <v>7.8666666666666663</v>
       </c>
       <c r="D10" s="2">
-        <f>B10/$B$2</f>
+        <f t="shared" si="2"/>
         <v>0.77377049180327873</v>
       </c>
     </row>
@@ -595,12 +4387,582 @@
         <v>7.666666666666667</v>
       </c>
       <c r="D11" s="2">
-        <f>B11/$B$2</f>
+        <f t="shared" si="2"/>
         <v>0.75409836065573765</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>229</v>
+      </c>
+      <c r="C12" s="1">
+        <f t="shared" si="0"/>
+        <v>7.6333333333333337</v>
+      </c>
+      <c r="D12" s="2">
+        <f t="shared" si="2"/>
+        <v>0.75081967213114753</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>262</v>
+      </c>
+      <c r="C13" s="1">
+        <f t="shared" si="0"/>
+        <v>8.7333333333333325</v>
+      </c>
+      <c r="D13" s="2">
+        <f t="shared" si="2"/>
+        <v>0.85901639344262293</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>258</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" si="0"/>
+        <v>8.6</v>
+      </c>
+      <c r="D14" s="2">
+        <f t="shared" si="2"/>
+        <v>0.84590163934426232</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15">
+        <v>274</v>
+      </c>
+      <c r="C15" s="1">
+        <f t="shared" si="0"/>
+        <v>9.1333333333333329</v>
+      </c>
+      <c r="D15" s="2">
+        <f t="shared" si="2"/>
+        <v>0.89836065573770496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16">
+        <v>267</v>
+      </c>
+      <c r="C16" s="1">
+        <f t="shared" si="0"/>
+        <v>8.9</v>
+      </c>
+      <c r="D16" s="2">
+        <f t="shared" si="2"/>
+        <v>0.87540983606557377</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17">
+        <v>270</v>
+      </c>
+      <c r="C17" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D17" s="2">
+        <f t="shared" si="2"/>
+        <v>0.88524590163934425</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18">
+        <v>266</v>
+      </c>
+      <c r="C18" s="1">
+        <f t="shared" si="0"/>
+        <v>8.8666666666666671</v>
+      </c>
+      <c r="D18" s="2">
+        <f t="shared" si="2"/>
+        <v>0.87213114754098364</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B19">
+        <v>270</v>
+      </c>
+      <c r="C19" s="1">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D19" s="2">
+        <f t="shared" si="2"/>
+        <v>0.88524590163934425</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39EEB39B-4946-422F-B086-E2DED5EDED23}">
+  <dimension ref="A1:D38"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>400</v>
+      </c>
+      <c r="C2">
+        <v>527</v>
+      </c>
+      <c r="D2">
+        <f>C2-B2+1</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>18</v>
+      </c>
+      <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:D9" si="0">C3-B3+1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>19</v>
+      </c>
+      <c r="C4">
+        <v>399</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>594</v>
+      </c>
+      <c r="C5">
+        <v>594</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>595</v>
+      </c>
+      <c r="C6">
+        <v>719</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>125</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>528</v>
+      </c>
+      <c r="C7">
+        <v>547</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>548</v>
+      </c>
+      <c r="C8">
+        <v>593</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>17</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1</v>
+      </c>
+      <c r="B14">
+        <v>19</v>
+      </c>
+      <c r="C14">
+        <v>547</v>
+      </c>
+      <c r="D14">
+        <f>C14-B14+1</f>
+        <v>529</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+      <c r="C15">
+        <v>18</v>
+      </c>
+      <c r="D15">
+        <f t="shared" ref="D15:D16" si="1">C15-B15+1</f>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>3</v>
+      </c>
+      <c r="B16">
+        <v>548</v>
+      </c>
+      <c r="C16">
+        <v>719</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="1"/>
+        <v>172</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>13</v>
+      </c>
+      <c r="C18" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1</v>
+      </c>
+      <c r="B19">
+        <v>400</v>
+      </c>
+      <c r="C19">
+        <v>719</v>
+      </c>
+      <c r="D19">
+        <f>C19-B19+1</f>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
+        <v>527</v>
+      </c>
+      <c r="D20">
+        <f t="shared" ref="D20:D21" si="2">C20-B20+1</f>
+        <v>528</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>3</v>
+      </c>
+      <c r="B21">
+        <v>594</v>
+      </c>
+      <c r="C21">
+        <v>719</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="C23" t="s">
+        <v>14</v>
+      </c>
+      <c r="D23" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+      <c r="C24">
+        <v>719</v>
+      </c>
+      <c r="D24">
+        <f>C24-B24+1</f>
+        <v>720</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2</v>
+      </c>
+      <c r="B25">
+        <v>18</v>
+      </c>
+      <c r="C25">
+        <v>527</v>
+      </c>
+      <c r="D25">
+        <f t="shared" ref="D25:D26" si="3">C25-B25+1</f>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3</v>
+      </c>
+      <c r="B26">
+        <v>18</v>
+      </c>
+      <c r="C26">
+        <v>719</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="3"/>
+        <v>702</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>13</v>
+      </c>
+      <c r="C29" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>18</v>
+      </c>
+      <c r="C30">
+        <v>593</v>
+      </c>
+      <c r="D30">
+        <f>C30-B30+1</f>
+        <v>576</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>18</v>
+      </c>
+      <c r="C31">
+        <v>527</v>
+      </c>
+      <c r="D31">
+        <f t="shared" ref="D31:D33" si="4">C31-B31+1</f>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3</v>
+      </c>
+      <c r="B32">
+        <v>594</v>
+      </c>
+      <c r="C32">
+        <v>719</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="4"/>
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>4</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>17</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D35" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>18</v>
+      </c>
+      <c r="C36">
+        <v>527</v>
+      </c>
+      <c r="D36">
+        <f>C36-B36+1</f>
+        <v>510</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>2</v>
+      </c>
+      <c r="B37">
+        <v>18</v>
+      </c>
+      <c r="C37">
+        <v>719</v>
+      </c>
+      <c r="D37">
+        <f t="shared" ref="D37:D39" si="5">C37-B37+1</f>
+        <v>702</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+      <c r="C38">
+        <v>719</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="5"/>
+        <v>720</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/P3DFps.xlsx
+++ b/P3DFps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\Potato3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{130E1E26-2203-4DD0-A2BD-834169B07FC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4439A2-6D82-4568-B839-DFB9A0C85AD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2904C00D-6B2E-49C9-A39A-1A4D989C3045}"/>
+    <workbookView xWindow="1305" yWindow="1515" windowWidth="21570" windowHeight="11370" xr2:uid="{2904C00D-6B2E-49C9-A39A-1A4D989C3045}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>BSP</t>
   </si>
@@ -95,6 +95,12 @@
   </si>
   <si>
     <t>s_opening</t>
+  </si>
+  <si>
+    <t>oFast</t>
+  </si>
+  <si>
+    <t>Combine uv mask</t>
   </si>
 </sst>
 </file>
@@ -4213,10 +4219,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9F04DC-EF96-45BA-9879-6DBCF76CA793}">
-  <dimension ref="A1:D19"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4242,7 +4248,7 @@
         <v>305</v>
       </c>
       <c r="C2" s="1">
-        <f t="shared" ref="C2:C19" si="0">B2/30</f>
+        <f t="shared" ref="C2:C22" si="0">B2/30</f>
         <v>10.166666666666666</v>
       </c>
       <c r="D2" s="2">
@@ -4355,7 +4361,7 @@
         <v>10.966666666666667</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" ref="D9:D19" si="2">B9/$B$2</f>
+        <f t="shared" ref="D9:D22" si="2">B9/$B$2</f>
         <v>1.0786885245901638</v>
       </c>
     </row>
@@ -4517,6 +4523,54 @@
       <c r="D19" s="2">
         <f t="shared" si="2"/>
         <v>0.88524590163934425</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>4</v>
+      </c>
+      <c r="B20">
+        <v>278</v>
+      </c>
+      <c r="C20" s="1">
+        <f t="shared" si="0"/>
+        <v>9.2666666666666675</v>
+      </c>
+      <c r="D20" s="2">
+        <f t="shared" si="2"/>
+        <v>0.91147540983606556</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B21">
+        <v>279</v>
+      </c>
+      <c r="C21" s="1">
+        <f t="shared" si="0"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D21" s="2">
+        <f t="shared" si="2"/>
+        <v>0.91475409836065569</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>280</v>
+      </c>
+      <c r="C22" s="1">
+        <f t="shared" si="0"/>
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="D22" s="2">
+        <f t="shared" si="2"/>
+        <v>0.91803278688524592</v>
       </c>
     </row>
   </sheetData>
@@ -4942,7 +4996,7 @@
         <v>719</v>
       </c>
       <c r="D37">
-        <f t="shared" ref="D37:D39" si="5">C37-B37+1</f>
+        <f t="shared" ref="D37:D38" si="5">C37-B37+1</f>
         <v>702</v>
       </c>
     </row>

--- a/P3DFps.xlsx
+++ b/P3DFps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\Potato3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC4439A2-6D82-4568-B839-DFB9A0C85AD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B5D465-8CEE-438D-8EFC-C78D3D182453}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1305" yWindow="1515" windowWidth="21570" windowHeight="11370" xr2:uid="{2904C00D-6B2E-49C9-A39A-1A4D989C3045}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2904C00D-6B2E-49C9-A39A-1A4D989C3045}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>BSP</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>Combine uv mask</t>
+  </si>
+  <si>
+    <t>Perspective Correct</t>
   </si>
 </sst>
 </file>
@@ -4219,10 +4222,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9F04DC-EF96-45BA-9879-6DBCF76CA793}">
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4248,7 +4251,7 @@
         <v>305</v>
       </c>
       <c r="C2" s="1">
-        <f t="shared" ref="C2:C22" si="0">B2/30</f>
+        <f t="shared" ref="C2:C23" si="0">B2/30</f>
         <v>10.166666666666666</v>
       </c>
       <c r="D2" s="2">
@@ -4361,7 +4364,7 @@
         <v>10.966666666666667</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" ref="D9:D22" si="2">B9/$B$2</f>
+        <f t="shared" ref="D9:D23" si="2">B9/$B$2</f>
         <v>1.0786885245901638</v>
       </c>
     </row>
@@ -4571,6 +4574,22 @@
       <c r="D22" s="2">
         <f t="shared" si="2"/>
         <v>0.91803278688524592</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23">
+        <v>181</v>
+      </c>
+      <c r="C23" s="1">
+        <f t="shared" si="0"/>
+        <v>6.0333333333333332</v>
+      </c>
+      <c r="D23" s="2">
+        <f t="shared" si="2"/>
+        <v>0.59344262295081962</v>
       </c>
     </row>
   </sheetData>

--- a/P3DFps.xlsx
+++ b/P3DFps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\Potato3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84B5D465-8CEE-438D-8EFC-C78D3D182453}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11986F4C-5D95-44B7-9396-4228CC0C6DE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2904C00D-6B2E-49C9-A39A-1A4D989C3045}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
   <si>
     <t>BSP</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>Perspective Correct</t>
+  </si>
+  <si>
+    <t>Reciprocal table</t>
   </si>
 </sst>
 </file>
@@ -4222,10 +4225,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9F04DC-EF96-45BA-9879-6DBCF76CA793}">
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4251,7 +4254,7 @@
         <v>305</v>
       </c>
       <c r="C2" s="1">
-        <f t="shared" ref="C2:C23" si="0">B2/30</f>
+        <f t="shared" ref="C2:C25" si="0">B2/30</f>
         <v>10.166666666666666</v>
       </c>
       <c r="D2" s="2">
@@ -4364,7 +4367,7 @@
         <v>10.966666666666667</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" ref="D9:D23" si="2">B9/$B$2</f>
+        <f t="shared" ref="D9:D25" si="2">B9/$B$2</f>
         <v>1.0786885245901638</v>
       </c>
     </row>
@@ -4590,6 +4593,38 @@
       <c r="D23" s="2">
         <f t="shared" si="2"/>
         <v>0.59344262295081962</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>236</v>
+      </c>
+      <c r="C24" s="1">
+        <f t="shared" si="0"/>
+        <v>7.8666666666666663</v>
+      </c>
+      <c r="D24" s="2">
+        <f t="shared" si="2"/>
+        <v>0.77377049180327873</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>231</v>
+      </c>
+      <c r="C25" s="1">
+        <f t="shared" si="0"/>
+        <v>7.7</v>
+      </c>
+      <c r="D25" s="2">
+        <f t="shared" si="2"/>
+        <v>0.75737704918032789</v>
       </c>
     </row>
   </sheetData>

--- a/P3DFps.xlsx
+++ b/P3DFps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\Potato3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11986F4C-5D95-44B7-9396-4228CC0C6DE2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD45FE8-E90D-413B-932F-4EEE9EBFE6B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2904C00D-6B2E-49C9-A39A-1A4D989C3045}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
   <si>
     <t>BSP</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>Reciprocal table</t>
+  </si>
+  <si>
+    <t>16x perspective</t>
   </si>
 </sst>
 </file>
@@ -4225,10 +4228,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9F04DC-EF96-45BA-9879-6DBCF76CA793}">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4254,7 +4257,7 @@
         <v>305</v>
       </c>
       <c r="C2" s="1">
-        <f t="shared" ref="C2:C25" si="0">B2/30</f>
+        <f t="shared" ref="C2:C26" si="0">B2/30</f>
         <v>10.166666666666666</v>
       </c>
       <c r="D2" s="2">
@@ -4367,7 +4370,7 @@
         <v>10.966666666666667</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" ref="D9:D25" si="2">B9/$B$2</f>
+        <f t="shared" ref="D9:D26" si="2">B9/$B$2</f>
         <v>1.0786885245901638</v>
       </c>
     </row>
@@ -4625,6 +4628,22 @@
       <c r="D25" s="2">
         <f t="shared" si="2"/>
         <v>0.75737704918032789</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>243</v>
+      </c>
+      <c r="C26" s="1">
+        <f t="shared" si="0"/>
+        <v>8.1</v>
+      </c>
+      <c r="D26" s="2">
+        <f t="shared" si="2"/>
+        <v>0.79672131147540981</v>
       </c>
     </row>
   </sheetData>

--- a/P3DFps.xlsx
+++ b/P3DFps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\Potato3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FDD45FE8-E90D-413B-932F-4EEE9EBFE6B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DF3676-B27B-4470-905B-F659B47C7CEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2904C00D-6B2E-49C9-A39A-1A4D989C3045}"/>
   </bookViews>
@@ -4231,7 +4231,7 @@
   <dimension ref="A1:D26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/P3DFps.xlsx
+++ b/P3DFps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\Potato3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2DF3676-B27B-4470-905B-F659B47C7CEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75055560-9C5A-47D2-BDB9-9FB58ACBB95E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2904C00D-6B2E-49C9-A39A-1A4D989C3045}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
   <si>
     <t>BSP</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>16x perspective</t>
+  </si>
+  <si>
+    <t>Optimise</t>
   </si>
 </sst>
 </file>
@@ -4228,10 +4231,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9F04DC-EF96-45BA-9879-6DBCF76CA793}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4257,7 +4260,7 @@
         <v>305</v>
       </c>
       <c r="C2" s="1">
-        <f t="shared" ref="C2:C26" si="0">B2/30</f>
+        <f t="shared" ref="C2:C27" si="0">B2/30</f>
         <v>10.166666666666666</v>
       </c>
       <c r="D2" s="2">
@@ -4370,7 +4373,7 @@
         <v>10.966666666666667</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" ref="D9:D26" si="2">B9/$B$2</f>
+        <f t="shared" ref="D9:D27" si="2">B9/$B$2</f>
         <v>1.0786885245901638</v>
       </c>
     </row>
@@ -4644,6 +4647,22 @@
       <c r="D26" s="2">
         <f t="shared" si="2"/>
         <v>0.79672131147540981</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>249</v>
+      </c>
+      <c r="C27" s="1">
+        <f t="shared" si="0"/>
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D27" s="2">
+        <f t="shared" si="2"/>
+        <v>0.81639344262295077</v>
       </c>
     </row>
   </sheetData>

--- a/P3DFps.xlsx
+++ b/P3DFps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\Potato3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75055560-9C5A-47D2-BDB9-9FB58ACBB95E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E31AD920-070D-42B8-A8D0-C3425165F459}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2904C00D-6B2E-49C9-A39A-1A4D989C3045}"/>
+    <workbookView xWindow="1305" yWindow="1515" windowWidth="21570" windowHeight="11370" xr2:uid="{2904C00D-6B2E-49C9-A39A-1A4D989C3045}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="29">
   <si>
     <t>BSP</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>Optimise</t>
+  </si>
+  <si>
+    <t>1500 view dist</t>
+  </si>
+  <si>
+    <t>C buffer</t>
   </si>
 </sst>
 </file>
@@ -4231,10 +4237,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9F04DC-EF96-45BA-9879-6DBCF76CA793}">
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4260,7 +4266,7 @@
         <v>305</v>
       </c>
       <c r="C2" s="1">
-        <f t="shared" ref="C2:C27" si="0">B2/30</f>
+        <f t="shared" ref="C2:C29" si="0">B2/30</f>
         <v>10.166666666666666</v>
       </c>
       <c r="D2" s="2">
@@ -4373,7 +4379,7 @@
         <v>10.966666666666667</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" ref="D9:D27" si="2">B9/$B$2</f>
+        <f t="shared" ref="D9:D29" si="2">B9/$B$2</f>
         <v>1.0786885245901638</v>
       </c>
     </row>
@@ -4663,6 +4669,38 @@
       <c r="D27" s="2">
         <f t="shared" si="2"/>
         <v>0.81639344262295077</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>239</v>
+      </c>
+      <c r="C28" s="1">
+        <f t="shared" si="0"/>
+        <v>7.9666666666666668</v>
+      </c>
+      <c r="D28" s="2">
+        <f t="shared" si="2"/>
+        <v>0.78360655737704921</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>111</v>
+      </c>
+      <c r="C29" s="1">
+        <f t="shared" si="0"/>
+        <v>3.7</v>
+      </c>
+      <c r="D29" s="2">
+        <f t="shared" si="2"/>
+        <v>0.36393442622950822</v>
       </c>
     </row>
   </sheetData>

--- a/P3DFps.xlsx
+++ b/P3DFps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\Potato3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ABC72D1-E5A1-460A-94DD-8C8BDE793501}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE09B382-6460-4F2D-80D0-D50841C0D5A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10515" yWindow="480" windowWidth="21570" windowHeight="11370" xr2:uid="{2904C00D-6B2E-49C9-A39A-1A4D989C3045}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2904C00D-6B2E-49C9-A39A-1A4D989C3045}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>BSP</t>
   </si>
@@ -106,6 +106,12 @@
   </si>
   <si>
     <t>Consolidate spans</t>
+  </si>
+  <si>
+    <t>Consolidate spans2</t>
+  </si>
+  <si>
+    <t>Consolidate spans3</t>
   </si>
 </sst>
 </file>
@@ -466,8 +472,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9F04DC-EF96-45BA-9879-6DBCF76CA793}">
   <dimension ref="A1:D38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,7 +499,7 @@
         <v>305</v>
       </c>
       <c r="C2" s="1">
-        <f t="shared" ref="C2:C29" si="0">B2/30</f>
+        <f t="shared" ref="C2:C31" si="0">B2/30</f>
         <v>10.166666666666666</v>
       </c>
       <c r="D2" s="2">
@@ -606,7 +612,7 @@
         <v>10.966666666666667</v>
       </c>
       <c r="D9" s="2">
-        <f t="shared" ref="D9:D29" si="2">B9/$B$2</f>
+        <f t="shared" ref="D9:D31" si="2">B9/$B$2</f>
         <v>1.0786885245901638</v>
       </c>
     </row>
@@ -928,6 +934,38 @@
       <c r="D29" s="2">
         <f t="shared" si="2"/>
         <v>1.118032786885246</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>25</v>
+      </c>
+      <c r="B30">
+        <v>343</v>
+      </c>
+      <c r="C30" s="1">
+        <f t="shared" si="0"/>
+        <v>11.433333333333334</v>
+      </c>
+      <c r="D30" s="2">
+        <f t="shared" si="2"/>
+        <v>1.1245901639344262</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>26</v>
+      </c>
+      <c r="B31">
+        <v>354</v>
+      </c>
+      <c r="C31" s="1">
+        <f t="shared" si="0"/>
+        <v>11.8</v>
+      </c>
+      <c r="D31" s="2">
+        <f t="shared" si="2"/>
+        <v>1.160655737704918</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">

--- a/P3DFps.xlsx
+++ b/P3DFps.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\Potato3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE09B382-6460-4F2D-80D0-D50841C0D5A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA64FBB-2F07-4A91-851B-E3E76AC87BA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2904C00D-6B2E-49C9-A39A-1A4D989C3045}"/>
   </bookViews>
@@ -20,18 +20,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
   <si>
     <t>BSP</t>
   </si>
@@ -112,6 +106,9 @@
   </si>
   <si>
     <t>Consolidate spans3</t>
+  </si>
+  <si>
+    <t>DKR Castle</t>
   </si>
 </sst>
 </file>
@@ -473,7 +470,7 @@
   <dimension ref="A1:D38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -968,22 +965,74 @@
         <v>1.160655737704918</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" s="3"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33">
+        <v>315</v>
+      </c>
+      <c r="C33" s="1">
+        <f t="shared" ref="C32:C36" si="3">B33/30</f>
+        <v>10.5</v>
+      </c>
+      <c r="D33" s="2">
+        <f t="shared" ref="D32:D36" si="4">B33/$B$2</f>
+        <v>1.0327868852459017</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34">
+        <v>316</v>
+      </c>
+      <c r="C34" s="1">
+        <f t="shared" si="3"/>
+        <v>10.533333333333333</v>
+      </c>
+      <c r="D34" s="2">
+        <f t="shared" si="4"/>
+        <v>1.0360655737704918</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35">
+        <v>161</v>
+      </c>
+      <c r="C35" s="1">
+        <f t="shared" si="3"/>
+        <v>5.3666666666666663</v>
+      </c>
+      <c r="D35" s="2">
+        <f t="shared" si="4"/>
+        <v>0.52786885245901638</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36">
+        <v>163</v>
+      </c>
+      <c r="C36" s="1">
+        <f t="shared" si="3"/>
+        <v>5.4333333333333336</v>
+      </c>
+      <c r="D36" s="2">
+        <f t="shared" si="4"/>
+        <v>0.53442622950819674</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
     </row>
   </sheetData>

--- a/P3DFps.xlsx
+++ b/P3DFps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\Potato3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA64FBB-2F07-4A91-851B-E3E76AC87BA6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7198818-41CF-42A6-B11A-C02C49B7A147}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2904C00D-6B2E-49C9-A39A-1A4D989C3045}"/>
+    <workbookView xWindow="7230" yWindow="480" windowWidth="21570" windowHeight="11370" xr2:uid="{2904C00D-6B2E-49C9-A39A-1A4D989C3045}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
   <si>
     <t>BSP</t>
   </si>
@@ -109,6 +109,30 @@
   </si>
   <si>
     <t>DKR Castle</t>
+  </si>
+  <si>
+    <t>Skip consolidate</t>
+  </si>
+  <si>
+    <t>Skip consolidate 4</t>
+  </si>
+  <si>
+    <t>120*80</t>
+  </si>
+  <si>
+    <t>BB Test polys</t>
+  </si>
+  <si>
+    <t>BB Test polys 2</t>
+  </si>
+  <si>
+    <t>8x unroll</t>
+  </si>
+  <si>
+    <t>No render stats</t>
+  </si>
+  <si>
+    <t>Division factor</t>
   </si>
 </sst>
 </file>
@@ -467,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9F04DC-EF96-45BA-9879-6DBCF76CA793}">
-  <dimension ref="A1:D38"/>
+  <dimension ref="A1:D54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="B54" sqref="B54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -973,11 +997,11 @@
         <v>315</v>
       </c>
       <c r="C33" s="1">
-        <f t="shared" ref="C32:C36" si="3">B33/30</f>
+        <f t="shared" ref="C33:C39" si="3">B33/30</f>
         <v>10.5</v>
       </c>
       <c r="D33" s="2">
-        <f t="shared" ref="D32:D36" si="4">B33/$B$2</f>
+        <f t="shared" ref="D33:D39" si="4">B33/$B$2</f>
         <v>1.0327868852459017</v>
       </c>
     </row>
@@ -1030,10 +1054,212 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="3"/>
+      <c r="A37" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B37">
+        <v>171</v>
+      </c>
+      <c r="C37" s="1">
+        <f t="shared" si="3"/>
+        <v>5.7</v>
+      </c>
+      <c r="D37" s="2">
+        <f t="shared" si="4"/>
+        <v>0.56065573770491806</v>
+      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="3"/>
+      <c r="A38" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B38">
+        <v>166</v>
+      </c>
+      <c r="C38" s="1">
+        <f t="shared" si="3"/>
+        <v>5.5333333333333332</v>
+      </c>
+      <c r="D38" s="2">
+        <f t="shared" si="4"/>
+        <v>0.54426229508196722</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B39">
+        <v>371</v>
+      </c>
+      <c r="C39" s="1">
+        <f t="shared" si="3"/>
+        <v>12.366666666666667</v>
+      </c>
+      <c r="D39" s="2">
+        <f t="shared" si="4"/>
+        <v>1.2163934426229508</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41">
+        <v>342</v>
+      </c>
+      <c r="C41" s="1">
+        <f t="shared" ref="C41:C42" si="5">B41/30</f>
+        <v>11.4</v>
+      </c>
+      <c r="D41" s="2">
+        <f t="shared" ref="D41:D42" si="6">B41/$B$2</f>
+        <v>1.1213114754098361</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B42">
+        <v>186</v>
+      </c>
+      <c r="C42" s="1">
+        <f t="shared" si="5"/>
+        <v>6.2</v>
+      </c>
+      <c r="D42" s="2">
+        <f t="shared" si="6"/>
+        <v>0.60983606557377046</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B44">
+        <v>347</v>
+      </c>
+      <c r="C44" s="1">
+        <f t="shared" ref="C44" si="7">B44/30</f>
+        <v>11.566666666666666</v>
+      </c>
+      <c r="D44" s="2">
+        <f t="shared" ref="D44" si="8">B44/$B$2</f>
+        <v>1.1377049180327869</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B45">
+        <v>191</v>
+      </c>
+      <c r="C45" s="1">
+        <f t="shared" ref="C45" si="9">B45/30</f>
+        <v>6.3666666666666663</v>
+      </c>
+      <c r="D45" s="2">
+        <f t="shared" ref="D45" si="10">B45/$B$2</f>
+        <v>0.6262295081967213</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B47">
+        <v>338</v>
+      </c>
+      <c r="C47" s="1">
+        <f t="shared" ref="C47" si="11">B47/30</f>
+        <v>11.266666666666667</v>
+      </c>
+      <c r="D47" s="2">
+        <f t="shared" ref="D47" si="12">B47/$B$2</f>
+        <v>1.1081967213114754</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B48">
+        <v>177</v>
+      </c>
+      <c r="C48" s="1">
+        <f t="shared" ref="C48" si="13">B48/30</f>
+        <v>5.9</v>
+      </c>
+      <c r="D48" s="2">
+        <f t="shared" ref="D48" si="14">B48/$B$2</f>
+        <v>0.58032786885245902</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50">
+        <v>355</v>
+      </c>
+      <c r="C50" s="1">
+        <f t="shared" ref="C50" si="15">B50/30</f>
+        <v>11.833333333333334</v>
+      </c>
+      <c r="D50" s="2">
+        <f t="shared" ref="D50" si="16">B50/$B$2</f>
+        <v>1.1639344262295082</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B51">
+        <v>235</v>
+      </c>
+      <c r="C51" s="1">
+        <f t="shared" ref="C51" si="17">B51/30</f>
+        <v>7.833333333333333</v>
+      </c>
+      <c r="D51" s="2">
+        <f t="shared" ref="D51" si="18">B51/$B$2</f>
+        <v>0.77049180327868849</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B53">
+        <v>370</v>
+      </c>
+      <c r="C53" s="1">
+        <f t="shared" ref="C52:C54" si="19">B53/30</f>
+        <v>12.333333333333334</v>
+      </c>
+      <c r="D53" s="2">
+        <f t="shared" ref="D52:D54" si="20">B53/$B$2</f>
+        <v>1.2131147540983607</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B54">
+        <v>235</v>
+      </c>
+      <c r="C54" s="1">
+        <f t="shared" si="19"/>
+        <v>7.833333333333333</v>
+      </c>
+      <c r="D54" s="2">
+        <f t="shared" si="20"/>
+        <v>0.77049180327868849</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/P3DFps.xlsx
+++ b/P3DFps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\Potato3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7198818-41CF-42A6-B11A-C02C49B7A147}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F43859-9B21-480F-A74D-BC7B275D5820}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7230" yWindow="480" windowWidth="21570" windowHeight="11370" xr2:uid="{2904C00D-6B2E-49C9-A39A-1A4D989C3045}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
   <si>
     <t>BSP</t>
   </si>
@@ -133,6 +133,12 @@
   </si>
   <si>
     <t>Division factor</t>
+  </si>
+  <si>
+    <t>Span Tree</t>
+  </si>
+  <si>
+    <t>GE Temple</t>
   </si>
 </sst>
 </file>
@@ -491,10 +497,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9F04DC-EF96-45BA-9879-6DBCF76CA793}">
-  <dimension ref="A1:D54"/>
+  <dimension ref="A1:D59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="B54" sqref="B54"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1237,11 +1243,11 @@
         <v>370</v>
       </c>
       <c r="C53" s="1">
-        <f t="shared" ref="C52:C54" si="19">B53/30</f>
+        <f t="shared" ref="C53:C54" si="19">B53/30</f>
         <v>12.333333333333334</v>
       </c>
       <c r="D53" s="2">
-        <f t="shared" ref="D52:D54" si="20">B53/$B$2</f>
+        <f t="shared" ref="D53:D54" si="20">B53/$B$2</f>
         <v>1.2131147540983607</v>
       </c>
     </row>
@@ -1259,6 +1265,54 @@
       <c r="D54" s="2">
         <f t="shared" si="20"/>
         <v>0.77049180327868849</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B56">
+        <v>405</v>
+      </c>
+      <c r="C56" s="1">
+        <f t="shared" ref="C56:C57" si="21">B56/30</f>
+        <v>13.5</v>
+      </c>
+      <c r="D56" s="2">
+        <f t="shared" ref="D56:D57" si="22">B56/$B$2</f>
+        <v>1.3278688524590163</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B57">
+        <v>208</v>
+      </c>
+      <c r="C57" s="1">
+        <f t="shared" si="21"/>
+        <v>6.9333333333333336</v>
+      </c>
+      <c r="D57" s="2">
+        <f t="shared" si="22"/>
+        <v>0.68196721311475406</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B59">
+        <v>293</v>
+      </c>
+      <c r="C59" s="1">
+        <f t="shared" ref="C58:C59" si="23">B59/30</f>
+        <v>9.7666666666666675</v>
+      </c>
+      <c r="D59" s="2">
+        <f t="shared" ref="D58:D59" si="24">B59/$B$2</f>
+        <v>0.96065573770491808</v>
       </c>
     </row>
   </sheetData>

--- a/P3DFps.xlsx
+++ b/P3DFps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\Potato3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F43859-9B21-480F-A74D-BC7B275D5820}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D18D56-A420-43A4-8E80-B2BA6776A8AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7230" yWindow="480" windowWidth="21570" windowHeight="11370" xr2:uid="{2904C00D-6B2E-49C9-A39A-1A4D989C3045}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
   <si>
     <t>BSP</t>
   </si>
@@ -139,6 +139,15 @@
   </si>
   <si>
     <t>GE Temple</t>
+  </si>
+  <si>
+    <t>Span tree</t>
+  </si>
+  <si>
+    <t>FOV</t>
+  </si>
+  <si>
+    <t>No span buffer</t>
   </si>
 </sst>
 </file>
@@ -497,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9F04DC-EF96-45BA-9879-6DBCF76CA793}">
-  <dimension ref="A1:D59"/>
+  <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,6 +1324,136 @@
         <v>0.96065573770491808</v>
       </c>
     </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B61">
+        <v>401</v>
+      </c>
+      <c r="C61" s="1">
+        <f t="shared" ref="C61" si="25">B61/30</f>
+        <v>13.366666666666667</v>
+      </c>
+      <c r="D61" s="2">
+        <f t="shared" ref="D61" si="26">B61/$B$2</f>
+        <v>1.3147540983606558</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B62">
+        <v>212</v>
+      </c>
+      <c r="C62" s="1">
+        <f t="shared" ref="C62" si="27">B62/30</f>
+        <v>7.0666666666666664</v>
+      </c>
+      <c r="D62" s="2">
+        <f t="shared" ref="D62" si="28">B62/$B$2</f>
+        <v>0.69508196721311477</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B64">
+        <v>478</v>
+      </c>
+      <c r="C64" s="1">
+        <f t="shared" ref="C64" si="29">B64/30</f>
+        <v>15.933333333333334</v>
+      </c>
+      <c r="D64" s="2">
+        <f t="shared" ref="D64" si="30">B64/$B$2</f>
+        <v>1.5672131147540984</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B65">
+        <v>223</v>
+      </c>
+      <c r="C65" s="1">
+        <f t="shared" ref="C65" si="31">B65/30</f>
+        <v>7.4333333333333336</v>
+      </c>
+      <c r="D65" s="2">
+        <f t="shared" ref="D65" si="32">B65/$B$2</f>
+        <v>0.73114754098360657</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B67">
+        <v>486</v>
+      </c>
+      <c r="C67" s="1">
+        <f t="shared" ref="C67" si="33">B67/30</f>
+        <v>16.2</v>
+      </c>
+      <c r="D67" s="2">
+        <f t="shared" ref="D67" si="34">B67/$B$2</f>
+        <v>1.5934426229508196</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B68">
+        <v>198</v>
+      </c>
+      <c r="C68" s="1">
+        <f t="shared" ref="C68" si="35">B68/30</f>
+        <v>6.6</v>
+      </c>
+      <c r="D68" s="2">
+        <f t="shared" ref="D68" si="36">B68/$B$2</f>
+        <v>0.64918032786885249</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B70">
+        <v>312</v>
+      </c>
+      <c r="C70" s="1">
+        <f t="shared" ref="C70" si="37">B70/30</f>
+        <v>10.4</v>
+      </c>
+      <c r="D70" s="2">
+        <f t="shared" ref="D70" si="38">B70/$B$2</f>
+        <v>1.0229508196721311</v>
+      </c>
+      <c r="G70" s="1"/>
+      <c r="H70" s="1"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B71">
+        <v>403</v>
+      </c>
+      <c r="C71" s="1">
+        <f t="shared" ref="C71" si="39">B71/30</f>
+        <v>13.433333333333334</v>
+      </c>
+      <c r="D71" s="2">
+        <f t="shared" ref="D71" si="40">B71/$B$2</f>
+        <v>1.3213114754098361</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>

--- a/P3DFps.xlsx
+++ b/P3DFps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\Potato3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D18D56-A420-43A4-8E80-B2BA6776A8AA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395371FE-A17E-43CF-91E5-DD9918719292}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7230" yWindow="480" windowWidth="21570" windowHeight="11370" xr2:uid="{2904C00D-6B2E-49C9-A39A-1A4D989C3045}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2904C00D-6B2E-49C9-A39A-1A4D989C3045}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
   <si>
     <t>BSP</t>
   </si>
@@ -148,6 +148,12 @@
   </si>
   <si>
     <t>No span buffer</t>
+  </si>
+  <si>
+    <t>No textures</t>
+  </si>
+  <si>
+    <t>Texture from VRAM</t>
   </si>
 </sst>
 </file>
@@ -506,10 +512,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9F04DC-EF96-45BA-9879-6DBCF76CA793}">
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A71" sqref="A71"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1316,11 +1322,11 @@
         <v>293</v>
       </c>
       <c r="C59" s="1">
-        <f t="shared" ref="C58:C59" si="23">B59/30</f>
+        <f t="shared" ref="C59" si="23">B59/30</f>
         <v>9.7666666666666675</v>
       </c>
       <c r="D59" s="2">
-        <f t="shared" ref="D58:D59" si="24">B59/$B$2</f>
+        <f t="shared" ref="D59" si="24">B59/$B$2</f>
         <v>0.96065573770491808</v>
       </c>
     </row>
@@ -1452,6 +1458,38 @@
       <c r="D71" s="2">
         <f t="shared" ref="D71" si="40">B71/$B$2</f>
         <v>1.3213114754098361</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B73">
+        <v>710</v>
+      </c>
+      <c r="C73" s="1">
+        <f t="shared" ref="C72:C73" si="41">B73/30</f>
+        <v>23.666666666666668</v>
+      </c>
+      <c r="D73" s="2">
+        <f t="shared" ref="D72:D73" si="42">B73/$B$2</f>
+        <v>2.3278688524590163</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B74">
+        <v>416</v>
+      </c>
+      <c r="C74" s="1">
+        <f t="shared" ref="C74" si="43">B74/30</f>
+        <v>13.866666666666667</v>
+      </c>
+      <c r="D74" s="2">
+        <f t="shared" ref="D74" si="44">B74/$B$2</f>
+        <v>1.3639344262295081</v>
       </c>
     </row>
   </sheetData>

--- a/P3DFps.xlsx
+++ b/P3DFps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\Potato3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{395371FE-A17E-43CF-91E5-DD9918719292}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DEF87C-29F4-43CB-983D-A89CBFDD2944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2904C00D-6B2E-49C9-A39A-1A4D989C3045}"/>
+    <workbookView xWindow="4230" yWindow="2820" windowWidth="21570" windowHeight="11370" xr2:uid="{2904C00D-6B2E-49C9-A39A-1A4D989C3045}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>BSP</t>
   </si>
@@ -154,6 +154,15 @@
   </si>
   <si>
     <t>Texture from VRAM</t>
+  </si>
+  <si>
+    <t>Base</t>
+  </si>
+  <si>
+    <t>Clip min</t>
+  </si>
+  <si>
+    <t>Bypass clip</t>
   </si>
 </sst>
 </file>
@@ -512,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9F04DC-EF96-45BA-9879-6DBCF76CA793}">
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:H82"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C82" sqref="C82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1468,11 +1477,11 @@
         <v>710</v>
       </c>
       <c r="C73" s="1">
-        <f t="shared" ref="C72:C73" si="41">B73/30</f>
+        <f t="shared" ref="C73" si="41">B73/30</f>
         <v>23.666666666666668</v>
       </c>
       <c r="D73" s="2">
-        <f t="shared" ref="D72:D73" si="42">B73/$B$2</f>
+        <f t="shared" ref="D73" si="42">B73/$B$2</f>
         <v>2.3278688524590163</v>
       </c>
     </row>
@@ -1484,12 +1493,66 @@
         <v>416</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" ref="C74" si="43">B74/30</f>
+        <f t="shared" ref="C74:C82" si="43">B74/30</f>
         <v>13.866666666666667</v>
       </c>
       <c r="D74" s="2">
         <f t="shared" ref="D74" si="44">B74/$B$2</f>
         <v>1.3639344262295081</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>43</v>
+      </c>
+      <c r="B77">
+        <v>371</v>
+      </c>
+      <c r="C77" s="1">
+        <f t="shared" si="43"/>
+        <v>12.366666666666667</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>44</v>
+      </c>
+      <c r="B78">
+        <v>343</v>
+      </c>
+      <c r="C78" s="1">
+        <f t="shared" si="43"/>
+        <v>11.433333333333334</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>45</v>
+      </c>
+      <c r="B79">
+        <v>341</v>
+      </c>
+      <c r="C79" s="1">
+        <f t="shared" si="43"/>
+        <v>11.366666666666667</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>170</v>
+      </c>
+      <c r="C81" s="1">
+        <f t="shared" si="43"/>
+        <v>5.666666666666667</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>127</v>
+      </c>
+      <c r="C82" s="1">
+        <f t="shared" si="43"/>
+        <v>4.2333333333333334</v>
       </c>
     </row>
   </sheetData>

--- a/P3DFps.xlsx
+++ b/P3DFps.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\Potato3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28DEF87C-29F4-43CB-983D-A89CBFDD2944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BD5CFD-D6EC-4B4D-AACC-156F3358C153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4230" yWindow="2820" windowWidth="21570" windowHeight="11370" xr2:uid="{2904C00D-6B2E-49C9-A39A-1A4D989C3045}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
   <si>
     <t>BSP</t>
   </si>
@@ -163,6 +163,15 @@
   </si>
   <si>
     <t>Bypass clip</t>
+  </si>
+  <si>
+    <t>Clip</t>
+  </si>
+  <si>
+    <t>Fast VX T</t>
+  </si>
+  <si>
+    <t>B2F</t>
   </si>
 </sst>
 </file>
@@ -202,11 +211,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,17 +531,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9F04DC-EF96-45BA-9879-6DBCF76CA793}">
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:H89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="C82" sqref="C82"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="H89" sqref="H89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" style="1"/>
-    <col min="4" max="4" width="9.140625" style="2"/>
+    <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -1493,7 +1503,7 @@
         <v>416</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" ref="C74:C82" si="43">B74/30</f>
+        <f t="shared" ref="C74:C87" si="43">B74/30</f>
         <v>13.866666666666667</v>
       </c>
       <c r="D74" s="2">
@@ -1537,7 +1547,7 @@
         <v>11.366666666666667</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B81">
         <v>170</v>
       </c>
@@ -1546,13 +1556,118 @@
         <v>5.666666666666667</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B82">
         <v>127</v>
       </c>
       <c r="C82" s="1">
         <f t="shared" si="43"/>
         <v>4.2333333333333334</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>194</v>
+      </c>
+      <c r="C85" s="1">
+        <f t="shared" si="43"/>
+        <v>6.4666666666666668</v>
+      </c>
+      <c r="E85">
+        <v>252</v>
+      </c>
+      <c r="F85">
+        <v>909</v>
+      </c>
+      <c r="G85" s="4">
+        <f>E85*C85</f>
+        <v>1629.6000000000001</v>
+      </c>
+      <c r="H85" s="4">
+        <f>F85*C85</f>
+        <v>5878.2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>46</v>
+      </c>
+      <c r="B86">
+        <v>199</v>
+      </c>
+      <c r="C86" s="1">
+        <f t="shared" si="43"/>
+        <v>6.6333333333333337</v>
+      </c>
+      <c r="E86">
+        <v>252</v>
+      </c>
+      <c r="F86">
+        <v>909</v>
+      </c>
+      <c r="G86" s="4">
+        <f>E86*C86</f>
+        <v>1671.6000000000001</v>
+      </c>
+      <c r="H86" s="4">
+        <f>F86*C86</f>
+        <v>6029.7000000000007</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>47</v>
+      </c>
+      <c r="B87">
+        <v>206</v>
+      </c>
+      <c r="C87" s="1">
+        <f t="shared" si="43"/>
+        <v>6.8666666666666663</v>
+      </c>
+      <c r="E87">
+        <v>252</v>
+      </c>
+      <c r="F87">
+        <v>909</v>
+      </c>
+      <c r="G87" s="4">
+        <f>E87*C87</f>
+        <v>1730.3999999999999</v>
+      </c>
+      <c r="H87" s="4">
+        <f>F87*C87</f>
+        <v>6241.7999999999993</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>48</v>
+      </c>
+      <c r="B89">
+        <v>205</v>
+      </c>
+      <c r="C89" s="1">
+        <f t="shared" ref="C88:C89" si="45">B89/30</f>
+        <v>6.833333333333333</v>
+      </c>
+      <c r="E89">
+        <v>252</v>
+      </c>
+      <c r="F89">
+        <v>909</v>
+      </c>
+      <c r="G89" s="4">
+        <f t="shared" ref="G88:G89" si="46">E89*C89</f>
+        <v>1722</v>
+      </c>
+      <c r="H89" s="4">
+        <f t="shared" ref="H88:H89" si="47">F89*C89</f>
+        <v>6211.5</v>
       </c>
     </row>
   </sheetData>

--- a/P3DFps.xlsx
+++ b/P3DFps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\Potato3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44BD5CFD-D6EC-4B4D-AACC-156F3358C153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A720C5F-B58A-493B-BB33-9AE7804743F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4230" yWindow="2820" windowWidth="21570" windowHeight="11370" xr2:uid="{2904C00D-6B2E-49C9-A39A-1A4D989C3045}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
   <si>
     <t>BSP</t>
   </si>
@@ -172,6 +172,18 @@
   </si>
   <si>
     <t>B2F</t>
+  </si>
+  <si>
+    <t>Oft</t>
+  </si>
+  <si>
+    <t>Log2</t>
+  </si>
+  <si>
+    <t>Loop</t>
+  </si>
+  <si>
+    <t>o3</t>
   </si>
 </sst>
 </file>
@@ -531,10 +543,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9F04DC-EF96-45BA-9879-6DBCF76CA793}">
-  <dimension ref="A1:H89"/>
+  <dimension ref="A1:H93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="H89" sqref="H89"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1503,7 +1515,7 @@
         <v>416</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" ref="C74:C87" si="43">B74/30</f>
+        <f t="shared" ref="C74:C91" si="43">B74/30</f>
         <v>13.866666666666667</v>
       </c>
       <c r="D74" s="2">
@@ -1573,6 +1585,10 @@
         <f t="shared" si="43"/>
         <v>6.4666666666666668</v>
       </c>
+      <c r="D85" s="2">
+        <f>B85/B85</f>
+        <v>1</v>
+      </c>
       <c r="E85">
         <v>252</v>
       </c>
@@ -1580,11 +1596,11 @@
         <v>909</v>
       </c>
       <c r="G85" s="4">
-        <f>E85*C85</f>
+        <f t="shared" ref="G85:G91" si="45">E85*C85</f>
         <v>1629.6000000000001</v>
       </c>
       <c r="H85" s="4">
-        <f>F85*C85</f>
+        <f t="shared" ref="H85:H91" si="46">F85*C85</f>
         <v>5878.2</v>
       </c>
     </row>
@@ -1599,6 +1615,10 @@
         <f t="shared" si="43"/>
         <v>6.6333333333333337</v>
       </c>
+      <c r="D86" s="2">
+        <f>B86/B$85</f>
+        <v>1.0257731958762886</v>
+      </c>
       <c r="E86">
         <v>252</v>
       </c>
@@ -1606,11 +1626,11 @@
         <v>909</v>
       </c>
       <c r="G86" s="4">
-        <f>E86*C86</f>
+        <f t="shared" si="45"/>
         <v>1671.6000000000001</v>
       </c>
       <c r="H86" s="4">
-        <f>F86*C86</f>
+        <f t="shared" si="46"/>
         <v>6029.7000000000007</v>
       </c>
     </row>
@@ -1625,6 +1645,10 @@
         <f t="shared" si="43"/>
         <v>6.8666666666666663</v>
       </c>
+      <c r="D87" s="2">
+        <f t="shared" ref="D87:D91" si="47">B87/B$85</f>
+        <v>1.0618556701030928</v>
+      </c>
       <c r="E87">
         <v>252</v>
       </c>
@@ -1632,28 +1656,58 @@
         <v>909</v>
       </c>
       <c r="G87" s="4">
-        <f>E87*C87</f>
+        <f t="shared" si="45"/>
         <v>1730.3999999999999</v>
       </c>
       <c r="H87" s="4">
-        <f>F87*C87</f>
+        <f t="shared" si="46"/>
         <v>6241.7999999999993</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G88" s="4"/>
-      <c r="H88" s="4"/>
+      <c r="A88" t="s">
+        <v>49</v>
+      </c>
+      <c r="B88">
+        <v>208</v>
+      </c>
+      <c r="C88" s="1">
+        <f t="shared" si="43"/>
+        <v>6.9333333333333336</v>
+      </c>
+      <c r="D88" s="2">
+        <f t="shared" si="47"/>
+        <v>1.0721649484536082</v>
+      </c>
+      <c r="E88">
+        <v>252</v>
+      </c>
+      <c r="F88">
+        <v>909</v>
+      </c>
+      <c r="G88" s="4">
+        <f t="shared" si="45"/>
+        <v>1747.2</v>
+      </c>
+      <c r="H88" s="4">
+        <f t="shared" si="46"/>
+        <v>6302.4000000000005</v>
+      </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B89">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C89" s="1">
-        <f t="shared" ref="C88:C89" si="45">B89/30</f>
-        <v>6.833333333333333</v>
+        <f t="shared" si="43"/>
+        <v>6.9</v>
+      </c>
+      <c r="D89" s="2">
+        <f t="shared" si="47"/>
+        <v>1.0670103092783505</v>
       </c>
       <c r="E89">
         <v>252</v>
@@ -1662,11 +1716,101 @@
         <v>909</v>
       </c>
       <c r="G89" s="4">
-        <f t="shared" ref="G88:G89" si="46">E89*C89</f>
+        <f t="shared" si="45"/>
+        <v>1738.8000000000002</v>
+      </c>
+      <c r="H89" s="4">
+        <f t="shared" si="46"/>
+        <v>6272.1</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>51</v>
+      </c>
+      <c r="B90">
+        <v>209</v>
+      </c>
+      <c r="C90" s="1">
+        <f t="shared" si="43"/>
+        <v>6.9666666666666668</v>
+      </c>
+      <c r="D90" s="2">
+        <f t="shared" si="47"/>
+        <v>1.0773195876288659</v>
+      </c>
+      <c r="E90">
+        <v>252</v>
+      </c>
+      <c r="F90">
+        <v>909</v>
+      </c>
+      <c r="G90" s="4">
+        <f t="shared" si="45"/>
+        <v>1755.6000000000001</v>
+      </c>
+      <c r="H90" s="4">
+        <f t="shared" si="46"/>
+        <v>6332.7</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>52</v>
+      </c>
+      <c r="B91">
+        <v>237</v>
+      </c>
+      <c r="C91" s="1">
+        <f t="shared" si="43"/>
+        <v>7.9</v>
+      </c>
+      <c r="D91" s="2">
+        <f t="shared" si="47"/>
+        <v>1.2216494845360826</v>
+      </c>
+      <c r="E91">
+        <v>252</v>
+      </c>
+      <c r="F91">
+        <v>909</v>
+      </c>
+      <c r="G91" s="4">
+        <f t="shared" si="45"/>
+        <v>1990.8000000000002</v>
+      </c>
+      <c r="H91" s="4">
+        <f t="shared" si="46"/>
+        <v>7181.1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>48</v>
+      </c>
+      <c r="B93">
+        <v>205</v>
+      </c>
+      <c r="C93" s="1">
+        <f t="shared" ref="C93" si="48">B93/30</f>
+        <v>6.833333333333333</v>
+      </c>
+      <c r="E93">
+        <v>252</v>
+      </c>
+      <c r="F93">
+        <v>909</v>
+      </c>
+      <c r="G93" s="4">
+        <f t="shared" ref="G93" si="49">E93*C93</f>
         <v>1722</v>
       </c>
-      <c r="H89" s="4">
-        <f t="shared" ref="H88:H89" si="47">F89*C89</f>
+      <c r="H93" s="4">
+        <f t="shared" ref="H93" si="50">F93*C93</f>
         <v>6211.5</v>
       </c>
     </row>

--- a/P3DFps.xlsx
+++ b/P3DFps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\Potato3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A720C5F-B58A-493B-BB33-9AE7804743F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAF1BB2-E3A2-4CA7-9563-30D64A168241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4230" yWindow="2820" windowWidth="21570" windowHeight="11370" xr2:uid="{2904C00D-6B2E-49C9-A39A-1A4D989C3045}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
   <si>
     <t>BSP</t>
   </si>
@@ -184,6 +184,9 @@
   </si>
   <si>
     <t>o3</t>
+  </si>
+  <si>
+    <t>Unified path</t>
   </si>
 </sst>
 </file>
@@ -543,10 +546,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9F04DC-EF96-45BA-9879-6DBCF76CA793}">
-  <dimension ref="A1:H93"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="D90" sqref="D90"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1515,7 +1518,7 @@
         <v>416</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" ref="C74:C91" si="43">B74/30</f>
+        <f t="shared" ref="C74:C92" si="43">B74/30</f>
         <v>13.866666666666667</v>
       </c>
       <c r="D74" s="2">
@@ -1646,7 +1649,7 @@
         <v>6.8666666666666663</v>
       </c>
       <c r="D87" s="2">
-        <f t="shared" ref="D87:D91" si="47">B87/B$85</f>
+        <f t="shared" ref="D87:D92" si="47">B87/B$85</f>
         <v>1.0618556701030928</v>
       </c>
       <c r="E87">
@@ -1785,32 +1788,62 @@
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G92" s="4"/>
-      <c r="H92" s="4"/>
+      <c r="A92" t="s">
+        <v>53</v>
+      </c>
+      <c r="B92">
+        <v>234</v>
+      </c>
+      <c r="C92" s="1">
+        <f t="shared" si="43"/>
+        <v>7.8</v>
+      </c>
+      <c r="D92" s="2">
+        <f t="shared" si="47"/>
+        <v>1.2061855670103092</v>
+      </c>
+      <c r="E92">
+        <v>252</v>
+      </c>
+      <c r="F92">
+        <v>909</v>
+      </c>
+      <c r="G92" s="4">
+        <f t="shared" ref="G92" si="48">E92*C92</f>
+        <v>1965.6</v>
+      </c>
+      <c r="H92" s="4">
+        <f t="shared" ref="H92" si="49">F92*C92</f>
+        <v>7090.2</v>
+      </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" t="s">
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
         <v>48</v>
       </c>
-      <c r="B93">
+      <c r="B94">
         <v>205</v>
       </c>
-      <c r="C93" s="1">
-        <f t="shared" ref="C93" si="48">B93/30</f>
+      <c r="C94" s="1">
+        <f t="shared" ref="C94" si="50">B94/30</f>
         <v>6.833333333333333</v>
       </c>
-      <c r="E93">
+      <c r="E94">
         <v>252</v>
       </c>
-      <c r="F93">
+      <c r="F94">
         <v>909</v>
       </c>
-      <c r="G93" s="4">
-        <f t="shared" ref="G93" si="49">E93*C93</f>
+      <c r="G94" s="4">
+        <f t="shared" ref="G94" si="51">E94*C94</f>
         <v>1722</v>
       </c>
-      <c r="H93" s="4">
-        <f t="shared" ref="H93" si="50">F93*C93</f>
+      <c r="H94" s="4">
+        <f t="shared" ref="H94" si="52">F94*C94</f>
         <v>6211.5</v>
       </c>
     </row>

--- a/P3DFps.xlsx
+++ b/P3DFps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\Potato3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAF1BB2-E3A2-4CA7-9563-30D64A168241}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3338E5A0-9F70-445E-9021-D03EE0E21F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4230" yWindow="2820" windowWidth="21570" windowHeight="11370" xr2:uid="{2904C00D-6B2E-49C9-A39A-1A4D989C3045}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
   <si>
     <t>BSP</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t>Unified path</t>
+  </si>
+  <si>
+    <t>Affine Texture</t>
+  </si>
+  <si>
+    <t>No lerp W</t>
   </si>
 </sst>
 </file>
@@ -546,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9F04DC-EF96-45BA-9879-6DBCF76CA793}">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="E92" sqref="E92"/>
+      <selection activeCell="A94" sqref="A94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1518,7 +1524,7 @@
         <v>416</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" ref="C74:C92" si="43">B74/30</f>
+        <f t="shared" ref="C74:C94" si="43">B74/30</f>
         <v>13.866666666666667</v>
       </c>
       <c r="D74" s="2">
@@ -1649,7 +1655,7 @@
         <v>6.8666666666666663</v>
       </c>
       <c r="D87" s="2">
-        <f t="shared" ref="D87:D92" si="47">B87/B$85</f>
+        <f t="shared" ref="D87:D94" si="47">B87/B$85</f>
         <v>1.0618556701030928</v>
       </c>
       <c r="E87">
@@ -1818,19 +1824,49 @@
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G93" s="4"/>
-      <c r="H93" s="4"/>
+      <c r="A93" t="s">
+        <v>54</v>
+      </c>
+      <c r="B93">
+        <v>265</v>
+      </c>
+      <c r="C93" s="1">
+        <f t="shared" si="43"/>
+        <v>8.8333333333333339</v>
+      </c>
+      <c r="D93" s="2">
+        <f t="shared" si="47"/>
+        <v>1.365979381443299</v>
+      </c>
+      <c r="E93">
+        <v>252</v>
+      </c>
+      <c r="F93">
+        <v>909</v>
+      </c>
+      <c r="G93" s="4">
+        <f t="shared" ref="G93" si="50">E93*C93</f>
+        <v>2226</v>
+      </c>
+      <c r="H93" s="4">
+        <f t="shared" ref="H93" si="51">F93*C93</f>
+        <v>8029.5000000000009</v>
+      </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B94">
-        <v>205</v>
+        <v>274</v>
       </c>
       <c r="C94" s="1">
-        <f t="shared" ref="C94" si="50">B94/30</f>
-        <v>6.833333333333333</v>
+        <f t="shared" si="43"/>
+        <v>9.1333333333333329</v>
+      </c>
+      <c r="D94" s="2">
+        <f t="shared" si="47"/>
+        <v>1.4123711340206186</v>
       </c>
       <c r="E94">
         <v>252</v>
@@ -1839,11 +1875,41 @@
         <v>909</v>
       </c>
       <c r="G94" s="4">
-        <f t="shared" ref="G94" si="51">E94*C94</f>
+        <f t="shared" ref="G94" si="52">E94*C94</f>
+        <v>2301.6</v>
+      </c>
+      <c r="H94" s="4">
+        <f t="shared" ref="H94" si="53">F94*C94</f>
+        <v>8302.1999999999989</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>48</v>
+      </c>
+      <c r="B96">
+        <v>205</v>
+      </c>
+      <c r="C96" s="1">
+        <f t="shared" ref="C96" si="54">B96/30</f>
+        <v>6.833333333333333</v>
+      </c>
+      <c r="E96">
+        <v>252</v>
+      </c>
+      <c r="F96">
+        <v>909</v>
+      </c>
+      <c r="G96" s="4">
+        <f t="shared" ref="G96" si="55">E96*C96</f>
         <v>1722</v>
       </c>
-      <c r="H94" s="4">
-        <f t="shared" ref="H94" si="52">F94*C94</f>
+      <c r="H96" s="4">
+        <f t="shared" ref="H96" si="56">F96*C96</f>
         <v>6211.5</v>
       </c>
     </row>

--- a/P3DFps.xlsx
+++ b/P3DFps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\Potato3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3338E5A0-9F70-445E-9021-D03EE0E21F26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3DA999-54E4-4601-8FF4-534E8D7F1829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="2820" windowWidth="21570" windowHeight="11370" xr2:uid="{2904C00D-6B2E-49C9-A39A-1A4D989C3045}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2904C00D-6B2E-49C9-A39A-1A4D989C3045}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
   <si>
     <t>BSP</t>
   </si>
@@ -193,6 +193,15 @@
   </si>
   <si>
     <t>No lerp W</t>
+  </si>
+  <si>
+    <t>Prestep UV</t>
+  </si>
+  <si>
+    <t>No Vertex cache</t>
+  </si>
+  <si>
+    <t>Vertex Cache</t>
   </si>
 </sst>
 </file>
@@ -552,10 +561,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9F04DC-EF96-45BA-9879-6DBCF76CA793}">
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:H99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="A94" sqref="A94"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1524,7 +1533,7 @@
         <v>416</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" ref="C74:C94" si="43">B74/30</f>
+        <f t="shared" ref="C74:C97" si="43">B74/30</f>
         <v>13.866666666666667</v>
       </c>
       <c r="D74" s="2">
@@ -1655,7 +1664,7 @@
         <v>6.8666666666666663</v>
       </c>
       <c r="D87" s="2">
-        <f t="shared" ref="D87:D94" si="47">B87/B$85</f>
+        <f t="shared" ref="D87:D97" si="47">B87/B$85</f>
         <v>1.0618556701030928</v>
       </c>
       <c r="E87">
@@ -1884,32 +1893,122 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G95" s="4"/>
-      <c r="H95" s="4"/>
+      <c r="A95" t="s">
+        <v>56</v>
+      </c>
+      <c r="B95">
+        <v>272</v>
+      </c>
+      <c r="C95" s="1">
+        <f t="shared" si="43"/>
+        <v>9.0666666666666664</v>
+      </c>
+      <c r="D95" s="2">
+        <f t="shared" si="47"/>
+        <v>1.402061855670103</v>
+      </c>
+      <c r="E95">
+        <v>252</v>
+      </c>
+      <c r="F95">
+        <v>910</v>
+      </c>
+      <c r="G95" s="4">
+        <f t="shared" ref="G95" si="54">E95*C95</f>
+        <v>2284.7999999999997</v>
+      </c>
+      <c r="H95" s="4">
+        <f t="shared" ref="H95" si="55">F95*C95</f>
+        <v>8250.6666666666661</v>
+      </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
       <c r="B96">
-        <v>205</v>
+        <v>284</v>
       </c>
       <c r="C96" s="1">
-        <f t="shared" ref="C96" si="54">B96/30</f>
-        <v>6.833333333333333</v>
+        <f t="shared" si="43"/>
+        <v>9.4666666666666668</v>
+      </c>
+      <c r="D96" s="2">
+        <f t="shared" si="47"/>
+        <v>1.4639175257731958</v>
       </c>
       <c r="E96">
         <v>252</v>
       </c>
       <c r="F96">
+        <v>910</v>
+      </c>
+      <c r="G96" s="4">
+        <f t="shared" ref="G96" si="56">E96*C96</f>
+        <v>2385.6</v>
+      </c>
+      <c r="H96" s="4">
+        <f t="shared" ref="H96" si="57">F96*C96</f>
+        <v>8614.6666666666661</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>58</v>
+      </c>
+      <c r="B97">
+        <v>296</v>
+      </c>
+      <c r="C97" s="1">
+        <f t="shared" si="43"/>
+        <v>9.8666666666666671</v>
+      </c>
+      <c r="D97" s="2">
+        <f t="shared" si="47"/>
+        <v>1.5257731958762886</v>
+      </c>
+      <c r="E97">
+        <v>252</v>
+      </c>
+      <c r="F97">
+        <v>910</v>
+      </c>
+      <c r="G97" s="4">
+        <f t="shared" ref="G97" si="58">E97*C97</f>
+        <v>2486.4</v>
+      </c>
+      <c r="H97" s="4">
+        <f t="shared" ref="H97" si="59">F97*C97</f>
+        <v>8978.6666666666679</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>48</v>
+      </c>
+      <c r="B99">
+        <v>205</v>
+      </c>
+      <c r="C99" s="1">
+        <f t="shared" ref="C99" si="60">B99/30</f>
+        <v>6.833333333333333</v>
+      </c>
+      <c r="E99">
+        <v>252</v>
+      </c>
+      <c r="F99">
         <v>909</v>
       </c>
-      <c r="G96" s="4">
-        <f t="shared" ref="G96" si="55">E96*C96</f>
+      <c r="G99" s="4">
+        <f t="shared" ref="G99" si="61">E99*C99</f>
         <v>1722</v>
       </c>
-      <c r="H96" s="4">
-        <f t="shared" ref="H96" si="56">F96*C96</f>
+      <c r="H99" s="4">
+        <f t="shared" ref="H99" si="62">F99*C99</f>
         <v>6211.5</v>
       </c>
     </row>

--- a/P3DFps.xlsx
+++ b/P3DFps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\Potato3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E3DA999-54E4-4601-8FF4-534E8D7F1829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D84BB16C-E56F-49AF-A93A-D227800BF17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2904C00D-6B2E-49C9-A39A-1A4D989C3045}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
   <si>
     <t>BSP</t>
   </si>
@@ -202,15 +203,40 @@
   </si>
   <si>
     <t>Vertex Cache</t>
+  </si>
+  <si>
+    <t>Streets</t>
+  </si>
+  <si>
+    <t>Pallete</t>
+  </si>
+  <si>
+    <t>S Def</t>
+  </si>
+  <si>
+    <t>S Buildings</t>
+  </si>
+  <si>
+    <t>b2f</t>
+  </si>
+  <si>
+    <t>f2b</t>
+  </si>
+  <si>
+    <t>Btn Buildings</t>
+  </si>
+  <si>
+    <t>b2f no tex</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
     <numFmt numFmtId="165" formatCode="0.0%"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -241,12 +267,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9F04DC-EF96-45BA-9879-6DBCF76CA793}">
-  <dimension ref="A1:H99"/>
+  <dimension ref="A1:H114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="C115" sqref="C115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1179,11 +1206,11 @@
         <v>342</v>
       </c>
       <c r="C41" s="1">
-        <f t="shared" ref="C41:C42" si="5">B41/30</f>
+        <f>B41/30</f>
         <v>11.4</v>
       </c>
       <c r="D41" s="2">
-        <f t="shared" ref="D41:D42" si="6">B41/$B$2</f>
+        <f>B41/$B$2</f>
         <v>1.1213114754098361</v>
       </c>
     </row>
@@ -1195,11 +1222,11 @@
         <v>186</v>
       </c>
       <c r="C42" s="1">
-        <f t="shared" si="5"/>
+        <f>B42/30</f>
         <v>6.2</v>
       </c>
       <c r="D42" s="2">
-        <f t="shared" si="6"/>
+        <f>B42/$B$2</f>
         <v>0.60983606557377046</v>
       </c>
     </row>
@@ -1211,11 +1238,11 @@
         <v>347</v>
       </c>
       <c r="C44" s="1">
-        <f t="shared" ref="C44" si="7">B44/30</f>
+        <f>B44/30</f>
         <v>11.566666666666666</v>
       </c>
       <c r="D44" s="2">
-        <f t="shared" ref="D44" si="8">B44/$B$2</f>
+        <f>B44/$B$2</f>
         <v>1.1377049180327869</v>
       </c>
     </row>
@@ -1227,11 +1254,11 @@
         <v>191</v>
       </c>
       <c r="C45" s="1">
-        <f t="shared" ref="C45" si="9">B45/30</f>
+        <f>B45/30</f>
         <v>6.3666666666666663</v>
       </c>
       <c r="D45" s="2">
-        <f t="shared" ref="D45" si="10">B45/$B$2</f>
+        <f>B45/$B$2</f>
         <v>0.6262295081967213</v>
       </c>
     </row>
@@ -1243,11 +1270,11 @@
         <v>338</v>
       </c>
       <c r="C47" s="1">
-        <f t="shared" ref="C47" si="11">B47/30</f>
+        <f>B47/30</f>
         <v>11.266666666666667</v>
       </c>
       <c r="D47" s="2">
-        <f t="shared" ref="D47" si="12">B47/$B$2</f>
+        <f>B47/$B$2</f>
         <v>1.1081967213114754</v>
       </c>
     </row>
@@ -1259,11 +1286,11 @@
         <v>177</v>
       </c>
       <c r="C48" s="1">
-        <f t="shared" ref="C48" si="13">B48/30</f>
+        <f>B48/30</f>
         <v>5.9</v>
       </c>
       <c r="D48" s="2">
-        <f t="shared" ref="D48" si="14">B48/$B$2</f>
+        <f>B48/$B$2</f>
         <v>0.58032786885245902</v>
       </c>
     </row>
@@ -1275,11 +1302,11 @@
         <v>355</v>
       </c>
       <c r="C50" s="1">
-        <f t="shared" ref="C50" si="15">B50/30</f>
+        <f>B50/30</f>
         <v>11.833333333333334</v>
       </c>
       <c r="D50" s="2">
-        <f t="shared" ref="D50" si="16">B50/$B$2</f>
+        <f>B50/$B$2</f>
         <v>1.1639344262295082</v>
       </c>
     </row>
@@ -1291,11 +1318,11 @@
         <v>235</v>
       </c>
       <c r="C51" s="1">
-        <f t="shared" ref="C51" si="17">B51/30</f>
+        <f>B51/30</f>
         <v>7.833333333333333</v>
       </c>
       <c r="D51" s="2">
-        <f t="shared" ref="D51" si="18">B51/$B$2</f>
+        <f>B51/$B$2</f>
         <v>0.77049180327868849</v>
       </c>
     </row>
@@ -1307,11 +1334,11 @@
         <v>370</v>
       </c>
       <c r="C53" s="1">
-        <f t="shared" ref="C53:C54" si="19">B53/30</f>
+        <f>B53/30</f>
         <v>12.333333333333334</v>
       </c>
       <c r="D53" s="2">
-        <f t="shared" ref="D53:D54" si="20">B53/$B$2</f>
+        <f>B53/$B$2</f>
         <v>1.2131147540983607</v>
       </c>
     </row>
@@ -1323,11 +1350,11 @@
         <v>235</v>
       </c>
       <c r="C54" s="1">
-        <f t="shared" si="19"/>
+        <f>B54/30</f>
         <v>7.833333333333333</v>
       </c>
       <c r="D54" s="2">
-        <f t="shared" si="20"/>
+        <f>B54/$B$2</f>
         <v>0.77049180327868849</v>
       </c>
     </row>
@@ -1339,11 +1366,11 @@
         <v>405</v>
       </c>
       <c r="C56" s="1">
-        <f t="shared" ref="C56:C57" si="21">B56/30</f>
+        <f>B56/30</f>
         <v>13.5</v>
       </c>
       <c r="D56" s="2">
-        <f t="shared" ref="D56:D57" si="22">B56/$B$2</f>
+        <f>B56/$B$2</f>
         <v>1.3278688524590163</v>
       </c>
     </row>
@@ -1355,11 +1382,11 @@
         <v>208</v>
       </c>
       <c r="C57" s="1">
-        <f t="shared" si="21"/>
+        <f>B57/30</f>
         <v>6.9333333333333336</v>
       </c>
       <c r="D57" s="2">
-        <f t="shared" si="22"/>
+        <f>B57/$B$2</f>
         <v>0.68196721311475406</v>
       </c>
     </row>
@@ -1371,11 +1398,11 @@
         <v>293</v>
       </c>
       <c r="C59" s="1">
-        <f t="shared" ref="C59" si="23">B59/30</f>
+        <f>B59/30</f>
         <v>9.7666666666666675</v>
       </c>
       <c r="D59" s="2">
-        <f t="shared" ref="D59" si="24">B59/$B$2</f>
+        <f>B59/$B$2</f>
         <v>0.96065573770491808</v>
       </c>
     </row>
@@ -1387,11 +1414,11 @@
         <v>401</v>
       </c>
       <c r="C61" s="1">
-        <f t="shared" ref="C61" si="25">B61/30</f>
+        <f>B61/30</f>
         <v>13.366666666666667</v>
       </c>
       <c r="D61" s="2">
-        <f t="shared" ref="D61" si="26">B61/$B$2</f>
+        <f>B61/$B$2</f>
         <v>1.3147540983606558</v>
       </c>
     </row>
@@ -1403,11 +1430,11 @@
         <v>212</v>
       </c>
       <c r="C62" s="1">
-        <f t="shared" ref="C62" si="27">B62/30</f>
+        <f>B62/30</f>
         <v>7.0666666666666664</v>
       </c>
       <c r="D62" s="2">
-        <f t="shared" ref="D62" si="28">B62/$B$2</f>
+        <f>B62/$B$2</f>
         <v>0.69508196721311477</v>
       </c>
     </row>
@@ -1419,11 +1446,11 @@
         <v>478</v>
       </c>
       <c r="C64" s="1">
-        <f t="shared" ref="C64" si="29">B64/30</f>
+        <f>B64/30</f>
         <v>15.933333333333334</v>
       </c>
       <c r="D64" s="2">
-        <f t="shared" ref="D64" si="30">B64/$B$2</f>
+        <f>B64/$B$2</f>
         <v>1.5672131147540984</v>
       </c>
     </row>
@@ -1435,11 +1462,11 @@
         <v>223</v>
       </c>
       <c r="C65" s="1">
-        <f t="shared" ref="C65" si="31">B65/30</f>
+        <f>B65/30</f>
         <v>7.4333333333333336</v>
       </c>
       <c r="D65" s="2">
-        <f t="shared" ref="D65" si="32">B65/$B$2</f>
+        <f>B65/$B$2</f>
         <v>0.73114754098360657</v>
       </c>
     </row>
@@ -1451,11 +1478,11 @@
         <v>486</v>
       </c>
       <c r="C67" s="1">
-        <f t="shared" ref="C67" si="33">B67/30</f>
+        <f>B67/30</f>
         <v>16.2</v>
       </c>
       <c r="D67" s="2">
-        <f t="shared" ref="D67" si="34">B67/$B$2</f>
+        <f>B67/$B$2</f>
         <v>1.5934426229508196</v>
       </c>
     </row>
@@ -1467,11 +1494,11 @@
         <v>198</v>
       </c>
       <c r="C68" s="1">
-        <f t="shared" ref="C68" si="35">B68/30</f>
+        <f>B68/30</f>
         <v>6.6</v>
       </c>
       <c r="D68" s="2">
-        <f t="shared" ref="D68" si="36">B68/$B$2</f>
+        <f>B68/$B$2</f>
         <v>0.64918032786885249</v>
       </c>
     </row>
@@ -1483,11 +1510,11 @@
         <v>312</v>
       </c>
       <c r="C70" s="1">
-        <f t="shared" ref="C70" si="37">B70/30</f>
+        <f>B70/30</f>
         <v>10.4</v>
       </c>
       <c r="D70" s="2">
-        <f t="shared" ref="D70" si="38">B70/$B$2</f>
+        <f>B70/$B$2</f>
         <v>1.0229508196721311</v>
       </c>
       <c r="G70" s="1"/>
@@ -1501,11 +1528,11 @@
         <v>403</v>
       </c>
       <c r="C71" s="1">
-        <f t="shared" ref="C71" si="39">B71/30</f>
+        <f>B71/30</f>
         <v>13.433333333333334</v>
       </c>
       <c r="D71" s="2">
-        <f t="shared" ref="D71" si="40">B71/$B$2</f>
+        <f>B71/$B$2</f>
         <v>1.3213114754098361</v>
       </c>
     </row>
@@ -1517,11 +1544,11 @@
         <v>710</v>
       </c>
       <c r="C73" s="1">
-        <f t="shared" ref="C73" si="41">B73/30</f>
+        <f>B73/30</f>
         <v>23.666666666666668</v>
       </c>
       <c r="D73" s="2">
-        <f t="shared" ref="D73" si="42">B73/$B$2</f>
+        <f>B73/$B$2</f>
         <v>2.3278688524590163</v>
       </c>
     </row>
@@ -1533,11 +1560,11 @@
         <v>416</v>
       </c>
       <c r="C74" s="1">
-        <f t="shared" ref="C74:C97" si="43">B74/30</f>
+        <f t="shared" ref="C74:C97" si="5">B74/30</f>
         <v>13.866666666666667</v>
       </c>
       <c r="D74" s="2">
-        <f t="shared" ref="D74" si="44">B74/$B$2</f>
+        <f>B74/$B$2</f>
         <v>1.3639344262295081</v>
       </c>
     </row>
@@ -1549,7 +1576,7 @@
         <v>371</v>
       </c>
       <c r="C77" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="5"/>
         <v>12.366666666666667</v>
       </c>
     </row>
@@ -1561,7 +1588,7 @@
         <v>343</v>
       </c>
       <c r="C78" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="5"/>
         <v>11.433333333333334</v>
       </c>
     </row>
@@ -1573,7 +1600,7 @@
         <v>341</v>
       </c>
       <c r="C79" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="5"/>
         <v>11.366666666666667</v>
       </c>
     </row>
@@ -1582,7 +1609,7 @@
         <v>170</v>
       </c>
       <c r="C81" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="5"/>
         <v>5.666666666666667</v>
       </c>
     </row>
@@ -1591,7 +1618,7 @@
         <v>127</v>
       </c>
       <c r="C82" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="5"/>
         <v>4.2333333333333334</v>
       </c>
     </row>
@@ -1600,7 +1627,7 @@
         <v>194</v>
       </c>
       <c r="C85" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="5"/>
         <v>6.4666666666666668</v>
       </c>
       <c r="D85" s="2">
@@ -1614,11 +1641,11 @@
         <v>909</v>
       </c>
       <c r="G85" s="4">
-        <f t="shared" ref="G85:G91" si="45">E85*C85</f>
+        <f t="shared" ref="G85:G91" si="6">E85*C85</f>
         <v>1629.6000000000001</v>
       </c>
       <c r="H85" s="4">
-        <f t="shared" ref="H85:H91" si="46">F85*C85</f>
+        <f t="shared" ref="H85:H91" si="7">F85*C85</f>
         <v>5878.2</v>
       </c>
     </row>
@@ -1630,7 +1657,7 @@
         <v>199</v>
       </c>
       <c r="C86" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="5"/>
         <v>6.6333333333333337</v>
       </c>
       <c r="D86" s="2">
@@ -1644,11 +1671,11 @@
         <v>909</v>
       </c>
       <c r="G86" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="6"/>
         <v>1671.6000000000001</v>
       </c>
       <c r="H86" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="7"/>
         <v>6029.7000000000007</v>
       </c>
     </row>
@@ -1660,11 +1687,11 @@
         <v>206</v>
       </c>
       <c r="C87" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="5"/>
         <v>6.8666666666666663</v>
       </c>
       <c r="D87" s="2">
-        <f t="shared" ref="D87:D97" si="47">B87/B$85</f>
+        <f t="shared" ref="D87:D97" si="8">B87/B$85</f>
         <v>1.0618556701030928</v>
       </c>
       <c r="E87">
@@ -1674,11 +1701,11 @@
         <v>909</v>
       </c>
       <c r="G87" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="6"/>
         <v>1730.3999999999999</v>
       </c>
       <c r="H87" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="7"/>
         <v>6241.7999999999993</v>
       </c>
     </row>
@@ -1690,11 +1717,11 @@
         <v>208</v>
       </c>
       <c r="C88" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="5"/>
         <v>6.9333333333333336</v>
       </c>
       <c r="D88" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="8"/>
         <v>1.0721649484536082</v>
       </c>
       <c r="E88">
@@ -1704,11 +1731,11 @@
         <v>909</v>
       </c>
       <c r="G88" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="6"/>
         <v>1747.2</v>
       </c>
       <c r="H88" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="7"/>
         <v>6302.4000000000005</v>
       </c>
     </row>
@@ -1720,11 +1747,11 @@
         <v>207</v>
       </c>
       <c r="C89" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="5"/>
         <v>6.9</v>
       </c>
       <c r="D89" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="8"/>
         <v>1.0670103092783505</v>
       </c>
       <c r="E89">
@@ -1734,11 +1761,11 @@
         <v>909</v>
       </c>
       <c r="G89" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="6"/>
         <v>1738.8000000000002</v>
       </c>
       <c r="H89" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="7"/>
         <v>6272.1</v>
       </c>
     </row>
@@ -1750,11 +1777,11 @@
         <v>209</v>
       </c>
       <c r="C90" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="5"/>
         <v>6.9666666666666668</v>
       </c>
       <c r="D90" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="8"/>
         <v>1.0773195876288659</v>
       </c>
       <c r="E90">
@@ -1764,11 +1791,11 @@
         <v>909</v>
       </c>
       <c r="G90" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="6"/>
         <v>1755.6000000000001</v>
       </c>
       <c r="H90" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="7"/>
         <v>6332.7</v>
       </c>
     </row>
@@ -1780,11 +1807,11 @@
         <v>237</v>
       </c>
       <c r="C91" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="5"/>
         <v>7.9</v>
       </c>
       <c r="D91" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="8"/>
         <v>1.2216494845360826</v>
       </c>
       <c r="E91">
@@ -1794,11 +1821,11 @@
         <v>909</v>
       </c>
       <c r="G91" s="4">
-        <f t="shared" si="45"/>
+        <f t="shared" si="6"/>
         <v>1990.8000000000002</v>
       </c>
       <c r="H91" s="4">
-        <f t="shared" si="46"/>
+        <f t="shared" si="7"/>
         <v>7181.1</v>
       </c>
     </row>
@@ -1810,11 +1837,11 @@
         <v>234</v>
       </c>
       <c r="C92" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="5"/>
         <v>7.8</v>
       </c>
       <c r="D92" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="8"/>
         <v>1.2061855670103092</v>
       </c>
       <c r="E92">
@@ -1824,11 +1851,11 @@
         <v>909</v>
       </c>
       <c r="G92" s="4">
-        <f t="shared" ref="G92" si="48">E92*C92</f>
+        <f t="shared" ref="G92:G97" si="9">E92*C92</f>
         <v>1965.6</v>
       </c>
       <c r="H92" s="4">
-        <f t="shared" ref="H92" si="49">F92*C92</f>
+        <f t="shared" ref="H92:H97" si="10">F92*C92</f>
         <v>7090.2</v>
       </c>
     </row>
@@ -1840,11 +1867,11 @@
         <v>265</v>
       </c>
       <c r="C93" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="5"/>
         <v>8.8333333333333339</v>
       </c>
       <c r="D93" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="8"/>
         <v>1.365979381443299</v>
       </c>
       <c r="E93">
@@ -1854,11 +1881,11 @@
         <v>909</v>
       </c>
       <c r="G93" s="4">
-        <f t="shared" ref="G93" si="50">E93*C93</f>
+        <f t="shared" si="9"/>
         <v>2226</v>
       </c>
       <c r="H93" s="4">
-        <f t="shared" ref="H93" si="51">F93*C93</f>
+        <f t="shared" si="10"/>
         <v>8029.5000000000009</v>
       </c>
     </row>
@@ -1870,11 +1897,11 @@
         <v>274</v>
       </c>
       <c r="C94" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="5"/>
         <v>9.1333333333333329</v>
       </c>
       <c r="D94" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="8"/>
         <v>1.4123711340206186</v>
       </c>
       <c r="E94">
@@ -1884,11 +1911,11 @@
         <v>909</v>
       </c>
       <c r="G94" s="4">
-        <f t="shared" ref="G94" si="52">E94*C94</f>
+        <f t="shared" si="9"/>
         <v>2301.6</v>
       </c>
       <c r="H94" s="4">
-        <f t="shared" ref="H94" si="53">F94*C94</f>
+        <f t="shared" si="10"/>
         <v>8302.1999999999989</v>
       </c>
     </row>
@@ -1900,11 +1927,11 @@
         <v>272</v>
       </c>
       <c r="C95" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="5"/>
         <v>9.0666666666666664</v>
       </c>
       <c r="D95" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="8"/>
         <v>1.402061855670103</v>
       </c>
       <c r="E95">
@@ -1914,11 +1941,11 @@
         <v>910</v>
       </c>
       <c r="G95" s="4">
-        <f t="shared" ref="G95" si="54">E95*C95</f>
+        <f t="shared" si="9"/>
         <v>2284.7999999999997</v>
       </c>
       <c r="H95" s="4">
-        <f t="shared" ref="H95" si="55">F95*C95</f>
+        <f t="shared" si="10"/>
         <v>8250.6666666666661</v>
       </c>
     </row>
@@ -1930,11 +1957,11 @@
         <v>284</v>
       </c>
       <c r="C96" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="5"/>
         <v>9.4666666666666668</v>
       </c>
       <c r="D96" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="8"/>
         <v>1.4639175257731958</v>
       </c>
       <c r="E96">
@@ -1944,11 +1971,11 @@
         <v>910</v>
       </c>
       <c r="G96" s="4">
-        <f t="shared" ref="G96" si="56">E96*C96</f>
+        <f t="shared" si="9"/>
         <v>2385.6</v>
       </c>
       <c r="H96" s="4">
-        <f t="shared" ref="H96" si="57">F96*C96</f>
+        <f t="shared" si="10"/>
         <v>8614.6666666666661</v>
       </c>
     </row>
@@ -1960,11 +1987,11 @@
         <v>296</v>
       </c>
       <c r="C97" s="1">
-        <f t="shared" si="43"/>
+        <f t="shared" si="5"/>
         <v>9.8666666666666671</v>
       </c>
       <c r="D97" s="2">
-        <f t="shared" si="47"/>
+        <f t="shared" si="8"/>
         <v>1.5257731958762886</v>
       </c>
       <c r="E97">
@@ -1974,42 +2001,245 @@
         <v>910</v>
       </c>
       <c r="G97" s="4">
-        <f t="shared" ref="G97" si="58">E97*C97</f>
+        <f t="shared" si="9"/>
         <v>2486.4</v>
       </c>
       <c r="H97" s="4">
-        <f t="shared" ref="H97" si="59">F97*C97</f>
+        <f t="shared" si="10"/>
         <v>8978.6666666666679</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G98" s="4"/>
-      <c r="H98" s="4"/>
+      <c r="A98" t="s">
+        <v>60</v>
+      </c>
+      <c r="B98">
+        <v>280</v>
+      </c>
+      <c r="C98" s="1">
+        <f t="shared" ref="C98" si="11">B98/30</f>
+        <v>9.3333333333333339</v>
+      </c>
+      <c r="D98" s="2">
+        <f t="shared" ref="D98:D99" si="12">B98/B$85</f>
+        <v>1.4432989690721649</v>
+      </c>
+      <c r="E98">
+        <v>273</v>
+      </c>
+      <c r="F98">
+        <v>910</v>
+      </c>
+      <c r="G98" s="4">
+        <f t="shared" ref="G98" si="13">E98*C98</f>
+        <v>2548</v>
+      </c>
+      <c r="H98" s="4">
+        <f t="shared" ref="H98" si="14">F98*C98</f>
+        <v>8493.3333333333339</v>
+      </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>48</v>
       </c>
       <c r="B99">
-        <v>205</v>
+        <v>315</v>
       </c>
       <c r="C99" s="1">
-        <f t="shared" ref="C99" si="60">B99/30</f>
-        <v>6.833333333333333</v>
+        <f>B99/30</f>
+        <v>10.5</v>
+      </c>
+      <c r="D99" s="2">
+        <f t="shared" si="12"/>
+        <v>1.6237113402061856</v>
       </c>
       <c r="E99">
-        <v>252</v>
+        <v>273</v>
       </c>
       <c r="F99">
         <v>909</v>
       </c>
       <c r="G99" s="4">
-        <f t="shared" ref="G99" si="61">E99*C99</f>
-        <v>1722</v>
+        <f>E99*C99</f>
+        <v>2866.5</v>
       </c>
       <c r="H99" s="4">
-        <f t="shared" ref="H99" si="62">F99*C99</f>
-        <v>6211.5</v>
+        <f>F99*C99</f>
+        <v>9544.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G100" s="4"/>
+      <c r="H100" s="4"/>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>59</v>
+      </c>
+      <c r="B101">
+        <v>356</v>
+      </c>
+      <c r="C101" s="1">
+        <f>B101/30</f>
+        <v>11.866666666666667</v>
+      </c>
+      <c r="E101">
+        <v>252</v>
+      </c>
+      <c r="F101">
+        <v>909</v>
+      </c>
+      <c r="G101" s="4">
+        <f>E101*C101</f>
+        <v>2990.4</v>
+      </c>
+      <c r="H101" s="4">
+        <f>F101*C101</f>
+        <v>10786.800000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>63</v>
+      </c>
+      <c r="C105" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D105" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>61</v>
+      </c>
+      <c r="B106">
+        <v>551</v>
+      </c>
+      <c r="C106" s="1">
+        <v>504</v>
+      </c>
+      <c r="D106" s="3">
+        <v>695</v>
+      </c>
+      <c r="E106" s="5">
+        <f>B106/30</f>
+        <v>18.366666666666667</v>
+      </c>
+      <c r="F106" s="5">
+        <f>C106/30</f>
+        <v>16.8</v>
+      </c>
+      <c r="G106" s="5">
+        <f>D106/30</f>
+        <v>23.166666666666668</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>62</v>
+      </c>
+      <c r="B107">
+        <v>334</v>
+      </c>
+      <c r="C107" s="1">
+        <v>255</v>
+      </c>
+      <c r="D107" s="3">
+        <v>468</v>
+      </c>
+      <c r="E107" s="5">
+        <f>B107/30</f>
+        <v>11.133333333333333</v>
+      </c>
+      <c r="F107" s="5">
+        <f>C107/30</f>
+        <v>8.5</v>
+      </c>
+      <c r="G107" s="5">
+        <f>D107/30</f>
+        <v>15.6</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>65</v>
+      </c>
+      <c r="B108">
+        <v>276</v>
+      </c>
+      <c r="C108" s="1">
+        <v>230</v>
+      </c>
+      <c r="D108" s="3">
+        <v>456</v>
+      </c>
+      <c r="E108" s="5">
+        <f>B108/30</f>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="F108" s="5">
+        <f>C108/30</f>
+        <v>7.666666666666667</v>
+      </c>
+      <c r="G108" s="5">
+        <f>D108/30</f>
+        <v>15.2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E109" s="5"/>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E110" s="5"/>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E111" s="5"/>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>61</v>
+      </c>
+      <c r="B112">
+        <v>561</v>
+      </c>
+      <c r="C112" s="1">
+        <v>561</v>
+      </c>
+      <c r="E112" s="5">
+        <f t="shared" ref="E109:E114" si="15">B112/30</f>
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>62</v>
+      </c>
+      <c r="B113">
+        <v>317</v>
+      </c>
+      <c r="C113" s="1">
+        <v>314</v>
+      </c>
+      <c r="E113" s="5">
+        <f t="shared" si="15"/>
+        <v>10.566666666666666</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>65</v>
+      </c>
+      <c r="B114">
+        <v>295</v>
+      </c>
+      <c r="C114" s="1">
+        <v>291</v>
+      </c>
+      <c r="E114" s="5">
+        <f t="shared" si="15"/>
+        <v>9.8333333333333339</v>
       </c>
     </row>
   </sheetData>

--- a/P3DFps.xlsx
+++ b/P3DFps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\Potato3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D84BB16C-E56F-49AF-A93A-D227800BF17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D3511F-AF33-416F-A3A8-FDC2C59D6481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2904C00D-6B2E-49C9-A39A-1A4D989C3045}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="71">
   <si>
     <t>BSP</t>
   </si>
@@ -227,6 +227,18 @@
   </si>
   <si>
     <t>b2f no tex</t>
+  </si>
+  <si>
+    <t>Early screenspace</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t>Uno Map</t>
+  </si>
+  <si>
+    <t>VxPool</t>
   </si>
 </sst>
 </file>
@@ -588,10 +600,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9F04DC-EF96-45BA-9879-6DBCF76CA793}">
-  <dimension ref="A1:H114"/>
+  <dimension ref="A1:H126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="C115" sqref="C115"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="D126" sqref="D126"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2208,11 +2220,15 @@
         <v>561</v>
       </c>
       <c r="E112" s="5">
-        <f t="shared" ref="E109:E114" si="15">B112/30</f>
+        <f t="shared" ref="E109:F124" si="15">B112/30</f>
         <v>18.7</v>
       </c>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F112" s="5">
+        <f t="shared" si="15"/>
+        <v>18.7</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>62</v>
       </c>
@@ -2226,8 +2242,12 @@
         <f t="shared" si="15"/>
         <v>10.566666666666666</v>
       </c>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F113" s="5">
+        <f t="shared" si="15"/>
+        <v>10.466666666666667</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>65</v>
       </c>
@@ -2240,6 +2260,161 @@
       <c r="E114" s="5">
         <f t="shared" si="15"/>
         <v>9.8333333333333339</v>
+      </c>
+      <c r="F114" s="5">
+        <f t="shared" si="15"/>
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E115" s="5"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>67</v>
+      </c>
+      <c r="E116" s="5"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>61</v>
+      </c>
+      <c r="B117">
+        <v>553</v>
+      </c>
+      <c r="C117" s="1">
+        <v>554</v>
+      </c>
+      <c r="E117" s="5">
+        <f t="shared" si="15"/>
+        <v>18.433333333333334</v>
+      </c>
+      <c r="F117" s="5">
+        <f t="shared" si="15"/>
+        <v>18.466666666666665</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>62</v>
+      </c>
+      <c r="B118">
+        <v>311</v>
+      </c>
+      <c r="C118" s="1">
+        <v>317</v>
+      </c>
+      <c r="E118" s="5">
+        <f t="shared" si="15"/>
+        <v>10.366666666666667</v>
+      </c>
+      <c r="F118" s="5">
+        <f t="shared" si="15"/>
+        <v>10.566666666666666</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>65</v>
+      </c>
+      <c r="B119">
+        <v>292</v>
+      </c>
+      <c r="C119" s="1">
+        <v>288</v>
+      </c>
+      <c r="E119" s="5">
+        <f t="shared" si="15"/>
+        <v>9.7333333333333325</v>
+      </c>
+      <c r="F119" s="5">
+        <f t="shared" si="15"/>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E120" s="5"/>
+      <c r="F120" s="5"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>68</v>
+      </c>
+      <c r="B121">
+        <v>381</v>
+      </c>
+      <c r="E121" s="5">
+        <f t="shared" si="15"/>
+        <v>12.7</v>
+      </c>
+      <c r="F121" s="5"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>69</v>
+      </c>
+      <c r="B122">
+        <v>375</v>
+      </c>
+      <c r="E122" s="5">
+        <f t="shared" si="15"/>
+        <v>12.5</v>
+      </c>
+      <c r="F122" s="5"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E123" s="5"/>
+      <c r="F123" s="5"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>70</v>
+      </c>
+      <c r="B124">
+        <v>548</v>
+      </c>
+      <c r="C124" s="1">
+        <v>521</v>
+      </c>
+      <c r="E124" s="5">
+        <f t="shared" si="15"/>
+        <v>18.266666666666666</v>
+      </c>
+      <c r="F124" s="5">
+        <f t="shared" si="15"/>
+        <v>17.366666666666667</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B125">
+        <v>309</v>
+      </c>
+      <c r="C125" s="1">
+        <v>305</v>
+      </c>
+      <c r="E125" s="5">
+        <f t="shared" ref="E125:F126" si="16">B125/30</f>
+        <v>10.3</v>
+      </c>
+      <c r="F125" s="5">
+        <f t="shared" si="16"/>
+        <v>10.166666666666666</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B126">
+        <v>292</v>
+      </c>
+      <c r="C126" s="1">
+        <v>291</v>
+      </c>
+      <c r="E126" s="5">
+        <f t="shared" si="16"/>
+        <v>9.7333333333333325</v>
+      </c>
+      <c r="F126" s="5">
+        <f t="shared" si="16"/>
+        <v>9.6999999999999993</v>
       </c>
     </row>
   </sheetData>

--- a/P3DFps.xlsx
+++ b/P3DFps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\Potato3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1D3511F-AF33-416F-A3A8-FDC2C59D6481}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{828EF476-F7D3-4D90-864E-4F414DB8B029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2904C00D-6B2E-49C9-A39A-1A4D989C3045}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
   <si>
     <t>BSP</t>
   </si>
@@ -239,6 +239,12 @@
   </si>
   <si>
     <t>VxPool</t>
+  </si>
+  <si>
+    <t>240x160</t>
+  </si>
+  <si>
+    <t>Ofast</t>
   </si>
 </sst>
 </file>
@@ -600,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9F04DC-EF96-45BA-9879-6DBCF76CA793}">
-  <dimension ref="A1:H126"/>
+  <dimension ref="A1:H138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D126" sqref="D126"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="B138" sqref="B138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2029,11 +2035,11 @@
         <v>280</v>
       </c>
       <c r="C98" s="1">
-        <f t="shared" ref="C98" si="11">B98/30</f>
+        <f>B98/30</f>
         <v>9.3333333333333339</v>
       </c>
       <c r="D98" s="2">
-        <f t="shared" ref="D98:D99" si="12">B98/B$85</f>
+        <f>B98/B$85</f>
         <v>1.4432989690721649</v>
       </c>
       <c r="E98">
@@ -2043,11 +2049,11 @@
         <v>910</v>
       </c>
       <c r="G98" s="4">
-        <f t="shared" ref="G98" si="13">E98*C98</f>
+        <f>E98*C98</f>
         <v>2548</v>
       </c>
       <c r="H98" s="4">
-        <f t="shared" ref="H98" si="14">F98*C98</f>
+        <f>F98*C98</f>
         <v>8493.3333333333339</v>
       </c>
     </row>
@@ -2063,7 +2069,7 @@
         <v>10.5</v>
       </c>
       <c r="D99" s="2">
-        <f t="shared" si="12"/>
+        <f>B99/B$85</f>
         <v>1.6237113402061856</v>
       </c>
       <c r="E99">
@@ -2136,15 +2142,15 @@
         <v>695</v>
       </c>
       <c r="E106" s="5">
-        <f>B106/30</f>
+        <f t="shared" ref="E106:G108" si="11">B106/30</f>
         <v>18.366666666666667</v>
       </c>
       <c r="F106" s="5">
-        <f>C106/30</f>
+        <f t="shared" si="11"/>
         <v>16.8</v>
       </c>
       <c r="G106" s="5">
-        <f>D106/30</f>
+        <f t="shared" si="11"/>
         <v>23.166666666666668</v>
       </c>
     </row>
@@ -2162,15 +2168,15 @@
         <v>468</v>
       </c>
       <c r="E107" s="5">
-        <f>B107/30</f>
+        <f t="shared" si="11"/>
         <v>11.133333333333333</v>
       </c>
       <c r="F107" s="5">
-        <f>C107/30</f>
+        <f t="shared" si="11"/>
         <v>8.5</v>
       </c>
       <c r="G107" s="5">
-        <f>D107/30</f>
+        <f t="shared" si="11"/>
         <v>15.6</v>
       </c>
     </row>
@@ -2188,15 +2194,15 @@
         <v>456</v>
       </c>
       <c r="E108" s="5">
-        <f>B108/30</f>
+        <f t="shared" si="11"/>
         <v>9.1999999999999993</v>
       </c>
       <c r="F108" s="5">
-        <f>C108/30</f>
+        <f t="shared" si="11"/>
         <v>7.666666666666667</v>
       </c>
       <c r="G108" s="5">
-        <f>D108/30</f>
+        <f t="shared" si="11"/>
         <v>15.2</v>
       </c>
     </row>
@@ -2220,15 +2226,15 @@
         <v>561</v>
       </c>
       <c r="E112" s="5">
-        <f t="shared" ref="E109:F124" si="15">B112/30</f>
+        <f t="shared" ref="E112:F124" si="12">B112/30</f>
         <v>18.7</v>
       </c>
       <c r="F112" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>18.7</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>62</v>
       </c>
@@ -2239,15 +2245,15 @@
         <v>314</v>
       </c>
       <c r="E113" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>10.566666666666666</v>
       </c>
       <c r="F113" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>10.466666666666667</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>65</v>
       </c>
@@ -2258,24 +2264,24 @@
         <v>291</v>
       </c>
       <c r="E114" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>9.8333333333333339</v>
       </c>
       <c r="F114" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E115" s="5"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>67</v>
       </c>
       <c r="E116" s="5"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>61</v>
       </c>
@@ -2286,15 +2292,15 @@
         <v>554</v>
       </c>
       <c r="E117" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>18.433333333333334</v>
       </c>
       <c r="F117" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>18.466666666666665</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>62</v>
       </c>
@@ -2305,15 +2311,15 @@
         <v>317</v>
       </c>
       <c r="E118" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>10.366666666666667</v>
       </c>
       <c r="F118" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>10.566666666666666</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>65</v>
       </c>
@@ -2324,19 +2330,19 @@
         <v>288</v>
       </c>
       <c r="E119" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>9.7333333333333325</v>
       </c>
       <c r="F119" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>9.6</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E120" s="5"/>
       <c r="F120" s="5"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>68</v>
       </c>
@@ -2344,12 +2350,12 @@
         <v>381</v>
       </c>
       <c r="E121" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>12.7</v>
       </c>
       <c r="F121" s="5"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>69</v>
       </c>
@@ -2357,16 +2363,16 @@
         <v>375</v>
       </c>
       <c r="E122" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>12.5</v>
       </c>
       <c r="F122" s="5"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>70</v>
       </c>
@@ -2377,15 +2383,19 @@
         <v>521</v>
       </c>
       <c r="E124" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>18.266666666666666</v>
       </c>
       <c r="F124" s="5">
-        <f t="shared" si="15"/>
+        <f t="shared" si="12"/>
         <v>17.366666666666667</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H124" s="2">
+        <f>B124/C124</f>
+        <v>1.051823416506718</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B125">
         <v>309</v>
       </c>
@@ -2393,15 +2403,19 @@
         <v>305</v>
       </c>
       <c r="E125" s="5">
-        <f t="shared" ref="E125:F126" si="16">B125/30</f>
+        <f t="shared" ref="E125:F136" si="13">B125/30</f>
         <v>10.3</v>
       </c>
       <c r="F125" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>10.166666666666666</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="H125" s="2">
+        <f>B125/C125</f>
+        <v>1.0131147540983607</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B126">
         <v>292</v>
       </c>
@@ -2409,12 +2423,118 @@
         <v>291</v>
       </c>
       <c r="E126" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>9.7333333333333325</v>
       </c>
       <c r="F126" s="5">
-        <f t="shared" si="16"/>
+        <f t="shared" si="13"/>
         <v>9.6999999999999993</v>
+      </c>
+      <c r="H126" s="2">
+        <f>B126/C126</f>
+        <v>1.0034364261168385</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E127" s="5"/>
+      <c r="F127" s="5"/>
+    </row>
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E128" s="5"/>
+      <c r="F128" s="5"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>71</v>
+      </c>
+      <c r="B129">
+        <v>523</v>
+      </c>
+      <c r="E129" s="5">
+        <f t="shared" si="13"/>
+        <v>17.433333333333334</v>
+      </c>
+      <c r="F129" s="5"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B130">
+        <v>288</v>
+      </c>
+      <c r="E130" s="5">
+        <f t="shared" si="13"/>
+        <v>9.6</v>
+      </c>
+      <c r="F130" s="5"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B131">
+        <v>258</v>
+      </c>
+      <c r="E131" s="5">
+        <f t="shared" si="13"/>
+        <v>8.6</v>
+      </c>
+      <c r="F131" s="5"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E132" s="5"/>
+      <c r="F132" s="5"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E133" s="5"/>
+      <c r="F133" s="5"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B134">
+        <v>402</v>
+      </c>
+      <c r="C134" s="1">
+        <v>435</v>
+      </c>
+      <c r="E134" s="5">
+        <f t="shared" si="13"/>
+        <v>13.4</v>
+      </c>
+      <c r="F134" s="5">
+        <f t="shared" si="13"/>
+        <v>14.5</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B135">
+        <v>225</v>
+      </c>
+      <c r="C135" s="1">
+        <v>268</v>
+      </c>
+      <c r="E135" s="5">
+        <f t="shared" si="13"/>
+        <v>7.5</v>
+      </c>
+      <c r="F135" s="5">
+        <f t="shared" si="13"/>
+        <v>8.9333333333333336</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B136">
+        <v>206</v>
+      </c>
+      <c r="C136" s="1">
+        <v>226</v>
+      </c>
+      <c r="E136" s="5">
+        <f t="shared" si="13"/>
+        <v>6.8666666666666663</v>
+      </c>
+      <c r="F136" s="5">
+        <f t="shared" si="13"/>
+        <v>7.5333333333333332</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/P3DFps.xlsx
+++ b/P3DFps.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\Potato3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{828EF476-F7D3-4D90-864E-4F414DB8B029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4B2BA7-09E7-4E0A-95E8-C2B9B1370944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2904C00D-6B2E-49C9-A39A-1A4D989C3045}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="80">
   <si>
     <t>BSP</t>
   </si>
@@ -244,7 +244,28 @@
     <t>240x160</t>
   </si>
   <si>
-    <t>Ofast</t>
+    <t>No Right bottom clip</t>
+  </si>
+  <si>
+    <t>Selective Clip</t>
+  </si>
+  <si>
+    <t>Selective Clip2</t>
+  </si>
+  <si>
+    <t>IWRAM</t>
+  </si>
+  <si>
+    <t>Obj3d in IWRAM</t>
+  </si>
+  <si>
+    <t>Z Far clip</t>
+  </si>
+  <si>
+    <t>Skip clip</t>
+  </si>
+  <si>
+    <t>240X160</t>
   </si>
 </sst>
 </file>
@@ -606,10 +627,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9F04DC-EF96-45BA-9879-6DBCF76CA793}">
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:H162"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="B138" sqref="B138"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="F100" sqref="F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2088,127 +2109,154 @@
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="G100" s="4"/>
-      <c r="H100" s="4"/>
+      <c r="A100" t="s">
+        <v>79</v>
+      </c>
+      <c r="B100">
+        <v>308</v>
+      </c>
+      <c r="C100" s="1">
+        <f>B100/30</f>
+        <v>10.266666666666667</v>
+      </c>
+      <c r="D100" s="2">
+        <f>B100/B$85</f>
+        <v>1.5876288659793814</v>
+      </c>
+      <c r="E100">
+        <v>304</v>
+      </c>
+      <c r="F100">
+        <v>294</v>
+      </c>
+      <c r="G100" s="4">
+        <f>E100*C100</f>
+        <v>3121.0666666666671</v>
+      </c>
+      <c r="H100" s="4">
+        <f>F100*C100</f>
+        <v>3018.4</v>
+      </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A101" t="s">
+      <c r="G101" s="4"/>
+      <c r="H101" s="4"/>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
         <v>59</v>
       </c>
-      <c r="B101">
+      <c r="B102">
         <v>356</v>
       </c>
-      <c r="C101" s="1">
-        <f>B101/30</f>
+      <c r="C102" s="1">
+        <f>B102/30</f>
         <v>11.866666666666667</v>
       </c>
-      <c r="E101">
+      <c r="E102">
         <v>252</v>
       </c>
-      <c r="F101">
+      <c r="F102">
         <v>909</v>
       </c>
-      <c r="G101" s="4">
-        <f>E101*C101</f>
+      <c r="G102" s="4">
+        <f>E102*C102</f>
         <v>2990.4</v>
       </c>
-      <c r="H101" s="4">
-        <f>F101*C101</f>
+      <c r="H102" s="4">
+        <f>F102*C102</f>
         <v>10786.800000000001</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B105" t="s">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
         <v>63</v>
       </c>
-      <c r="C105" s="1" t="s">
+      <c r="C106" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D106" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A106" t="s">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
         <v>61</v>
       </c>
-      <c r="B106">
+      <c r="B107">
         <v>551</v>
       </c>
-      <c r="C106" s="1">
+      <c r="C107" s="1">
         <v>504</v>
       </c>
-      <c r="D106" s="3">
+      <c r="D107" s="3">
         <v>695</v>
       </c>
-      <c r="E106" s="5">
-        <f t="shared" ref="E106:G108" si="11">B106/30</f>
+      <c r="E107" s="5">
+        <f t="shared" ref="E107:G109" si="11">B107/30</f>
         <v>18.366666666666667</v>
       </c>
-      <c r="F106" s="5">
+      <c r="F107" s="5">
         <f t="shared" si="11"/>
         <v>16.8</v>
       </c>
-      <c r="G106" s="5">
+      <c r="G107" s="5">
         <f t="shared" si="11"/>
         <v>23.166666666666668</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A107" t="s">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
         <v>62</v>
       </c>
-      <c r="B107">
+      <c r="B108">
         <v>334</v>
       </c>
-      <c r="C107" s="1">
+      <c r="C108" s="1">
         <v>255</v>
       </c>
-      <c r="D107" s="3">
+      <c r="D108" s="3">
         <v>468</v>
       </c>
-      <c r="E107" s="5">
+      <c r="E108" s="5">
         <f t="shared" si="11"/>
         <v>11.133333333333333</v>
       </c>
-      <c r="F107" s="5">
+      <c r="F108" s="5">
         <f t="shared" si="11"/>
         <v>8.5</v>
       </c>
-      <c r="G107" s="5">
+      <c r="G108" s="5">
         <f t="shared" si="11"/>
         <v>15.6</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A108" t="s">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
         <v>65</v>
       </c>
-      <c r="B108">
+      <c r="B109">
         <v>276</v>
       </c>
-      <c r="C108" s="1">
+      <c r="C109" s="1">
         <v>230</v>
       </c>
-      <c r="D108" s="3">
+      <c r="D109" s="3">
         <v>456</v>
       </c>
-      <c r="E108" s="5">
+      <c r="E109" s="5">
         <f t="shared" si="11"/>
         <v>9.1999999999999993</v>
       </c>
-      <c r="F108" s="5">
+      <c r="F109" s="5">
         <f t="shared" si="11"/>
         <v>7.666666666666667</v>
       </c>
-      <c r="G108" s="5">
+      <c r="G109" s="5">
         <f t="shared" si="11"/>
         <v>15.2</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E109" s="5"/>
-    </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E110" s="5"/>
     </row>
@@ -2216,268 +2264,267 @@
       <c r="E111" s="5"/>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A112" t="s">
+      <c r="E112" s="5"/>
+    </row>
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
         <v>61</v>
       </c>
-      <c r="B112">
+      <c r="B113">
         <v>561</v>
       </c>
-      <c r="C112" s="1">
+      <c r="C113" s="1">
         <v>561</v>
       </c>
-      <c r="E112" s="5">
-        <f t="shared" ref="E112:F124" si="12">B112/30</f>
+      <c r="E113" s="5">
+        <f t="shared" ref="E113:F125" si="12">B113/30</f>
         <v>18.7</v>
       </c>
-      <c r="F112" s="5">
+      <c r="F113" s="5">
         <f t="shared" si="12"/>
         <v>18.7</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A113" t="s">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
         <v>62</v>
       </c>
-      <c r="B113">
+      <c r="B114">
         <v>317</v>
       </c>
-      <c r="C113" s="1">
+      <c r="C114" s="1">
         <v>314</v>
       </c>
-      <c r="E113" s="5">
+      <c r="E114" s="5">
         <f t="shared" si="12"/>
         <v>10.566666666666666</v>
       </c>
-      <c r="F113" s="5">
+      <c r="F114" s="5">
         <f t="shared" si="12"/>
         <v>10.466666666666667</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A114" t="s">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
         <v>65</v>
       </c>
-      <c r="B114">
+      <c r="B115">
         <v>295</v>
       </c>
-      <c r="C114" s="1">
+      <c r="C115" s="1">
         <v>291</v>
       </c>
-      <c r="E114" s="5">
+      <c r="E115" s="5">
         <f t="shared" si="12"/>
         <v>9.8333333333333339</v>
       </c>
-      <c r="F114" s="5">
+      <c r="F115" s="5">
         <f t="shared" si="12"/>
         <v>9.6999999999999993</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E115" s="5"/>
-    </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A116" t="s">
-        <v>67</v>
-      </c>
       <c r="E116" s="5"/>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
+        <v>67</v>
+      </c>
+      <c r="E117" s="5"/>
+    </row>
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
         <v>61</v>
       </c>
-      <c r="B117">
+      <c r="B118">
         <v>553</v>
       </c>
-      <c r="C117" s="1">
+      <c r="C118" s="1">
         <v>554</v>
       </c>
-      <c r="E117" s="5">
+      <c r="E118" s="5">
         <f t="shared" si="12"/>
         <v>18.433333333333334</v>
       </c>
-      <c r="F117" s="5">
+      <c r="F118" s="5">
         <f t="shared" si="12"/>
         <v>18.466666666666665</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A118" t="s">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
         <v>62</v>
       </c>
-      <c r="B118">
+      <c r="B119">
         <v>311</v>
       </c>
-      <c r="C118" s="1">
+      <c r="C119" s="1">
         <v>317</v>
       </c>
-      <c r="E118" s="5">
+      <c r="E119" s="5">
         <f t="shared" si="12"/>
         <v>10.366666666666667</v>
       </c>
-      <c r="F118" s="5">
+      <c r="F119" s="5">
         <f t="shared" si="12"/>
         <v>10.566666666666666</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A119" t="s">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
         <v>65</v>
       </c>
-      <c r="B119">
+      <c r="B120">
         <v>292</v>
       </c>
-      <c r="C119" s="1">
+      <c r="C120" s="1">
         <v>288</v>
       </c>
-      <c r="E119" s="5">
+      <c r="E120" s="5">
         <f t="shared" si="12"/>
         <v>9.7333333333333325</v>
       </c>
-      <c r="F119" s="5">
+      <c r="F120" s="5">
         <f t="shared" si="12"/>
         <v>9.6</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E120" s="5"/>
-      <c r="F120" s="5"/>
-    </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A121" t="s">
+      <c r="E121" s="5"/>
+      <c r="F121" s="5"/>
+    </row>
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
         <v>68</v>
       </c>
-      <c r="B121">
+      <c r="B122">
         <v>381</v>
       </c>
-      <c r="E121" s="5">
+      <c r="E122" s="5">
         <f t="shared" si="12"/>
         <v>12.7</v>
       </c>
-      <c r="F121" s="5"/>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A122" t="s">
+      <c r="F122" s="5"/>
+    </row>
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
         <v>69</v>
       </c>
-      <c r="B122">
+      <c r="B123">
         <v>375</v>
       </c>
-      <c r="E122" s="5">
+      <c r="E123" s="5">
         <f t="shared" si="12"/>
         <v>12.5</v>
       </c>
-      <c r="F122" s="5"/>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E123" s="5"/>
       <c r="F123" s="5"/>
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A124" t="s">
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+    </row>
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
         <v>70</v>
       </c>
-      <c r="B124">
+      <c r="B125">
         <v>548</v>
       </c>
-      <c r="C124" s="1">
+      <c r="C125" s="1">
         <v>521</v>
       </c>
-      <c r="E124" s="5">
+      <c r="E125" s="5">
         <f t="shared" si="12"/>
         <v>18.266666666666666</v>
       </c>
-      <c r="F124" s="5">
+      <c r="F125" s="5">
         <f t="shared" si="12"/>
         <v>17.366666666666667</v>
       </c>
-      <c r="H124" s="2">
-        <f>B124/C124</f>
+      <c r="H125" s="2">
+        <f>B125/C125</f>
         <v>1.051823416506718</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B125">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B126">
         <v>309</v>
       </c>
-      <c r="C125" s="1">
+      <c r="C126" s="1">
         <v>305</v>
       </c>
-      <c r="E125" s="5">
-        <f t="shared" ref="E125:F136" si="13">B125/30</f>
+      <c r="E126" s="5">
+        <f t="shared" ref="E126:F141" si="13">B126/30</f>
         <v>10.3</v>
       </c>
-      <c r="F125" s="5">
+      <c r="F126" s="5">
         <f t="shared" si="13"/>
         <v>10.166666666666666</v>
       </c>
-      <c r="H125" s="2">
-        <f>B125/C125</f>
+      <c r="H126" s="2">
+        <f>B126/C126</f>
         <v>1.0131147540983607</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B126">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B127">
         <v>292</v>
       </c>
-      <c r="C126" s="1">
+      <c r="C127" s="1">
         <v>291</v>
       </c>
-      <c r="E126" s="5">
+      <c r="E127" s="5">
         <f t="shared" si="13"/>
         <v>9.7333333333333325</v>
       </c>
-      <c r="F126" s="5">
+      <c r="F127" s="5">
         <f t="shared" si="13"/>
         <v>9.6999999999999993</v>
       </c>
-      <c r="H126" s="2">
-        <f>B126/C126</f>
+      <c r="H127" s="2">
+        <f>B127/C127</f>
         <v>1.0034364261168385</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E127" s="5"/>
-      <c r="F127" s="5"/>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" t="s">
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>71</v>
       </c>
-      <c r="B129">
+      <c r="B130">
         <v>523</v>
       </c>
-      <c r="E129" s="5">
+      <c r="E130" s="5">
         <f t="shared" si="13"/>
         <v>17.433333333333334</v>
       </c>
-      <c r="F129" s="5"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B130">
+      <c r="F130" s="5"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B131">
         <v>288</v>
       </c>
-      <c r="E130" s="5">
+      <c r="E131" s="5">
         <f t="shared" si="13"/>
         <v>9.6</v>
       </c>
-      <c r="F130" s="5"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B131">
+      <c r="F131" s="5"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B132">
         <v>258</v>
       </c>
-      <c r="E131" s="5">
+      <c r="E132" s="5">
         <f t="shared" si="13"/>
         <v>8.6</v>
       </c>
-      <c r="F131" s="5"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="E132" s="5"/>
       <c r="F132" s="5"/>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -2485,60 +2532,296 @@
       <c r="F133" s="5"/>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B134">
+      <c r="E134" s="5"/>
+      <c r="F134" s="5"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B135">
         <v>402</v>
       </c>
-      <c r="C134" s="1">
+      <c r="C135" s="1">
         <v>435</v>
       </c>
-      <c r="E134" s="5">
+      <c r="E135" s="5">
         <f t="shared" si="13"/>
         <v>13.4</v>
       </c>
-      <c r="F134" s="5">
+      <c r="F135" s="5">
         <f t="shared" si="13"/>
         <v>14.5</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B135">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B136">
         <v>225</v>
       </c>
-      <c r="C135" s="1">
+      <c r="C136" s="1">
         <v>268</v>
       </c>
-      <c r="E135" s="5">
+      <c r="E136" s="5">
         <f t="shared" si="13"/>
         <v>7.5</v>
       </c>
-      <c r="F135" s="5">
+      <c r="F136" s="5">
         <f t="shared" si="13"/>
         <v>8.9333333333333336</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B136">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B137">
         <v>206</v>
       </c>
-      <c r="C136" s="1">
+      <c r="C137" s="1">
         <v>226</v>
       </c>
-      <c r="E136" s="5">
+      <c r="E137" s="5">
         <f t="shared" si="13"/>
         <v>6.8666666666666663</v>
       </c>
-      <c r="F136" s="5">
+      <c r="F137" s="5">
         <f t="shared" si="13"/>
         <v>7.5333333333333332</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
+      <c r="E138" s="5"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
         <v>72</v>
+      </c>
+      <c r="B139">
+        <v>559</v>
+      </c>
+      <c r="E139" s="5">
+        <f t="shared" si="13"/>
+        <v>18.633333333333333</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B140">
+        <v>297</v>
+      </c>
+      <c r="E140" s="5">
+        <f t="shared" si="13"/>
+        <v>9.9</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B141">
+        <v>269</v>
+      </c>
+      <c r="E141" s="5">
+        <f t="shared" si="13"/>
+        <v>8.9666666666666668</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E142" s="5"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E143" s="5"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>73</v>
+      </c>
+      <c r="B144">
+        <v>554</v>
+      </c>
+      <c r="E144" s="5">
+        <f t="shared" ref="E144:F158" si="14">B144/30</f>
+        <v>18.466666666666665</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B145">
+        <v>295</v>
+      </c>
+      <c r="E145" s="5">
+        <f t="shared" si="14"/>
+        <v>9.8333333333333339</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B146">
+        <v>256</v>
+      </c>
+      <c r="E146" s="5">
+        <f t="shared" si="14"/>
+        <v>8.5333333333333332</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E147" s="5"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>74</v>
+      </c>
+      <c r="B148">
+        <v>556</v>
+      </c>
+      <c r="C148" s="1">
+        <v>548</v>
+      </c>
+      <c r="E148" s="5">
+        <f t="shared" si="14"/>
+        <v>18.533333333333335</v>
+      </c>
+      <c r="F148" s="5">
+        <f t="shared" si="14"/>
+        <v>18.266666666666666</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B149">
+        <v>291</v>
+      </c>
+      <c r="E149" s="5">
+        <f t="shared" si="14"/>
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B150">
+        <v>262</v>
+      </c>
+      <c r="E150" s="5">
+        <f t="shared" si="14"/>
+        <v>8.7333333333333325</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E151" s="5"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>76</v>
+      </c>
+      <c r="B152">
+        <v>574</v>
+      </c>
+      <c r="E152" s="5">
+        <f t="shared" si="14"/>
+        <v>19.133333333333333</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B153">
+        <v>303</v>
+      </c>
+      <c r="E153" s="5">
+        <f t="shared" si="14"/>
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B154">
+        <v>265</v>
+      </c>
+      <c r="E154" s="5">
+        <f t="shared" si="14"/>
+        <v>8.8333333333333339</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E155" s="5"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>77</v>
+      </c>
+      <c r="B156">
+        <v>525</v>
+      </c>
+      <c r="E156" s="5">
+        <f t="shared" si="14"/>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B157">
+        <v>285</v>
+      </c>
+      <c r="E157" s="5">
+        <f t="shared" si="14"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B158">
+        <v>251</v>
+      </c>
+      <c r="E158" s="5">
+        <f t="shared" si="14"/>
+        <v>8.3666666666666671</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E159" s="5"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>78</v>
+      </c>
+      <c r="B160">
+        <v>611</v>
+      </c>
+      <c r="E160" s="5">
+        <f t="shared" ref="E160:E162" si="15">B160/30</f>
+        <v>20.366666666666667</v>
+      </c>
+    </row>
+    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B161">
+        <v>326</v>
+      </c>
+      <c r="E161" s="5">
+        <f t="shared" si="15"/>
+        <v>10.866666666666667</v>
+      </c>
+    </row>
+    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B162">
+        <v>330</v>
+      </c>
+      <c r="E162" s="5">
+        <f t="shared" si="15"/>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6B7A93-A256-4135-9C93-B5E7687BF29D}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" s="3">
+        <v>18148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>26604</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/P3DFps.xlsx
+++ b/P3DFps.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\Potato3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC4B2BA7-09E7-4E0A-95E8-C2B9B1370944}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844B30B5-D21C-46C5-B9B8-343CA1B22040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2904C00D-6B2E-49C9-A39A-1A4D989C3045}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="93">
   <si>
     <t>BSP</t>
   </si>
@@ -266,6 +266,45 @@
   </si>
   <si>
     <t>240X160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cache </t>
+  </si>
+  <si>
+    <t>Misses</t>
+  </si>
+  <si>
+    <t>Peeks</t>
+  </si>
+  <si>
+    <t>Sorted Nodes</t>
+  </si>
+  <si>
+    <t>16x</t>
+  </si>
+  <si>
+    <t>8x</t>
+  </si>
+  <si>
+    <t>4x</t>
+  </si>
+  <si>
+    <t>Wide FOV</t>
+  </si>
+  <si>
+    <t>No tex cache</t>
+  </si>
+  <si>
+    <t>No Vx Cache</t>
+  </si>
+  <si>
+    <t>Obj3d IWRAM</t>
+  </si>
+  <si>
+    <t>Front to back</t>
+  </si>
+  <si>
+    <t>No early reject</t>
   </si>
 </sst>
 </file>
@@ -627,17 +666,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9F04DC-EF96-45BA-9879-6DBCF76CA793}">
-  <dimension ref="A1:H162"/>
+  <dimension ref="A1:K197"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="F100" sqref="F100"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="E177" sqref="E177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="1"/>
+    <col min="3" max="3" width="10.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="22.85546875" customWidth="1"/>
+    <col min="15" max="15" width="27.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
@@ -2769,11 +2810,11 @@
         <v>611</v>
       </c>
       <c r="E160" s="5">
-        <f t="shared" ref="E160:E162" si="15">B160/30</f>
+        <f t="shared" ref="E160:G173" si="15">B160/30</f>
         <v>20.366666666666667</v>
       </c>
     </row>
-    <row r="161" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B161">
         <v>326</v>
       </c>
@@ -2782,13 +2823,532 @@
         <v>10.866666666666667</v>
       </c>
     </row>
-    <row r="162" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B162">
         <v>330</v>
       </c>
       <c r="E162" s="5">
         <f t="shared" si="15"/>
         <v>11</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E163" s="5"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>84</v>
+      </c>
+      <c r="B164">
+        <v>366</v>
+      </c>
+      <c r="C164" s="1">
+        <v>263</v>
+      </c>
+      <c r="D164" s="4">
+        <v>273</v>
+      </c>
+      <c r="E164" s="5">
+        <f t="shared" si="15"/>
+        <v>12.2</v>
+      </c>
+      <c r="F164" s="5">
+        <f t="shared" si="15"/>
+        <v>8.7666666666666675</v>
+      </c>
+      <c r="G164" s="5">
+        <f t="shared" si="15"/>
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>85</v>
+      </c>
+      <c r="B165">
+        <v>355</v>
+      </c>
+      <c r="C165" s="1">
+        <v>255</v>
+      </c>
+      <c r="D165" s="4">
+        <v>263</v>
+      </c>
+      <c r="E165" s="5">
+        <f t="shared" si="15"/>
+        <v>11.833333333333334</v>
+      </c>
+      <c r="F165" s="5">
+        <f t="shared" ref="F165" si="16">C165/30</f>
+        <v>8.5</v>
+      </c>
+      <c r="G165" s="5">
+        <f t="shared" ref="G165" si="17">D165/30</f>
+        <v>8.7666666666666675</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>86</v>
+      </c>
+      <c r="B166">
+        <v>359</v>
+      </c>
+      <c r="C166" s="1">
+        <v>259</v>
+      </c>
+      <c r="D166" s="4">
+        <v>268</v>
+      </c>
+      <c r="E166" s="5">
+        <f t="shared" si="15"/>
+        <v>11.966666666666667</v>
+      </c>
+      <c r="F166" s="5">
+        <f t="shared" si="15"/>
+        <v>8.6333333333333329</v>
+      </c>
+      <c r="G166" s="5">
+        <f t="shared" si="15"/>
+        <v>8.9333333333333336</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>51</v>
+      </c>
+      <c r="B167">
+        <v>361</v>
+      </c>
+      <c r="C167" s="1">
+        <v>261</v>
+      </c>
+      <c r="D167" s="4"/>
+      <c r="E167" s="5">
+        <f t="shared" si="15"/>
+        <v>12.033333333333333</v>
+      </c>
+      <c r="F167" s="5">
+        <f t="shared" ref="F167" si="18">C167/30</f>
+        <v>8.6999999999999993</v>
+      </c>
+      <c r="G167" s="5">
+        <f t="shared" ref="G167" si="19">D167/30</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D168" s="4"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>87</v>
+      </c>
+      <c r="B169">
+        <v>295</v>
+      </c>
+      <c r="C169" s="1">
+        <v>238</v>
+      </c>
+      <c r="D169" s="4">
+        <v>247</v>
+      </c>
+      <c r="E169" s="5">
+        <f t="shared" si="15"/>
+        <v>9.8333333333333339</v>
+      </c>
+      <c r="F169" s="5">
+        <f t="shared" ref="F169" si="20">C169/30</f>
+        <v>7.9333333333333336</v>
+      </c>
+      <c r="G169" s="5">
+        <f t="shared" ref="G169" si="21">D169/30</f>
+        <v>8.2333333333333325</v>
+      </c>
+      <c r="I169" s="3">
+        <f>E169*254</f>
+        <v>2497.666666666667</v>
+      </c>
+      <c r="J169" s="3">
+        <f>F169*352</f>
+        <v>2792.5333333333333</v>
+      </c>
+      <c r="K169" s="3">
+        <f>G169*407</f>
+        <v>3350.9666666666662</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>88</v>
+      </c>
+      <c r="B170">
+        <v>312</v>
+      </c>
+      <c r="C170" s="1">
+        <v>260</v>
+      </c>
+      <c r="D170" s="4">
+        <v>268</v>
+      </c>
+      <c r="E170" s="5">
+        <f t="shared" si="15"/>
+        <v>10.4</v>
+      </c>
+      <c r="F170" s="5">
+        <f t="shared" ref="F170:F173" si="22">C170/30</f>
+        <v>8.6666666666666661</v>
+      </c>
+      <c r="G170" s="5">
+        <f t="shared" ref="G170:G173" si="23">D170/30</f>
+        <v>8.9333333333333336</v>
+      </c>
+      <c r="I170" s="3">
+        <f t="shared" ref="I170:I177" si="24">E170*254</f>
+        <v>2641.6</v>
+      </c>
+      <c r="J170" s="3">
+        <f t="shared" ref="J170:J173" si="25">F170*352</f>
+        <v>3050.6666666666665</v>
+      </c>
+      <c r="K170" s="3">
+        <f t="shared" ref="K170:K173" si="26">G170*407</f>
+        <v>3635.8666666666668</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>89</v>
+      </c>
+      <c r="B171">
+        <v>279</v>
+      </c>
+      <c r="C171" s="1">
+        <v>225</v>
+      </c>
+      <c r="D171" s="4">
+        <v>235</v>
+      </c>
+      <c r="E171" s="5">
+        <f t="shared" si="15"/>
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="F171" s="5">
+        <f t="shared" si="22"/>
+        <v>7.5</v>
+      </c>
+      <c r="G171" s="5">
+        <f t="shared" si="23"/>
+        <v>7.833333333333333</v>
+      </c>
+      <c r="I171" s="3">
+        <f t="shared" si="24"/>
+        <v>2362.2000000000003</v>
+      </c>
+      <c r="J171" s="3">
+        <f t="shared" si="25"/>
+        <v>2640</v>
+      </c>
+      <c r="K171" s="3">
+        <f t="shared" si="26"/>
+        <v>3188.1666666666665</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>90</v>
+      </c>
+      <c r="B172">
+        <v>322</v>
+      </c>
+      <c r="C172" s="1">
+        <v>265</v>
+      </c>
+      <c r="D172" s="4">
+        <v>274</v>
+      </c>
+      <c r="E172" s="5">
+        <f t="shared" si="15"/>
+        <v>10.733333333333333</v>
+      </c>
+      <c r="F172" s="5">
+        <f t="shared" si="22"/>
+        <v>8.8333333333333339</v>
+      </c>
+      <c r="G172" s="5">
+        <f t="shared" si="23"/>
+        <v>9.1333333333333329</v>
+      </c>
+      <c r="I172" s="3">
+        <f t="shared" si="24"/>
+        <v>2726.2666666666664</v>
+      </c>
+      <c r="J172" s="3">
+        <f t="shared" si="25"/>
+        <v>3109.3333333333335</v>
+      </c>
+      <c r="K172" s="3">
+        <f t="shared" si="26"/>
+        <v>3717.2666666666664</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>91</v>
+      </c>
+      <c r="B173">
+        <v>284</v>
+      </c>
+      <c r="C173" s="1">
+        <v>225</v>
+      </c>
+      <c r="D173" s="4">
+        <v>233</v>
+      </c>
+      <c r="E173" s="5">
+        <f t="shared" si="15"/>
+        <v>9.4666666666666668</v>
+      </c>
+      <c r="F173" s="5">
+        <f t="shared" si="22"/>
+        <v>7.5</v>
+      </c>
+      <c r="G173" s="5">
+        <f t="shared" si="23"/>
+        <v>7.7666666666666666</v>
+      </c>
+      <c r="I173" s="3">
+        <f t="shared" si="24"/>
+        <v>2404.5333333333333</v>
+      </c>
+      <c r="J173" s="3">
+        <f t="shared" si="25"/>
+        <v>2640</v>
+      </c>
+      <c r="K173" s="3">
+        <f t="shared" si="26"/>
+        <v>3161.0333333333333</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D174" s="4"/>
+      <c r="E174" s="5"/>
+      <c r="F174" s="5"/>
+      <c r="G174" s="5"/>
+      <c r="I174" s="3"/>
+      <c r="J174" s="3"/>
+      <c r="K174" s="3"/>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>92</v>
+      </c>
+      <c r="B175">
+        <v>310</v>
+      </c>
+      <c r="C175" s="1">
+        <v>238</v>
+      </c>
+      <c r="D175" s="4">
+        <v>229</v>
+      </c>
+      <c r="E175" s="5">
+        <f t="shared" ref="E175:E177" si="27">B175/30</f>
+        <v>10.333333333333334</v>
+      </c>
+      <c r="F175" s="5">
+        <f t="shared" ref="F175:F177" si="28">C175/30</f>
+        <v>7.9333333333333336</v>
+      </c>
+      <c r="G175" s="5">
+        <f t="shared" ref="G175:G177" si="29">D175/30</f>
+        <v>7.6333333333333337</v>
+      </c>
+      <c r="I175" s="3">
+        <f t="shared" si="24"/>
+        <v>2624.666666666667</v>
+      </c>
+      <c r="J175" s="3">
+        <f>F175*493</f>
+        <v>3911.1333333333337</v>
+      </c>
+      <c r="K175" s="3">
+        <f>G175*499</f>
+        <v>3809.0333333333338</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B176">
+        <v>320</v>
+      </c>
+      <c r="C176" s="1">
+        <v>271</v>
+      </c>
+      <c r="D176" s="4">
+        <v>267</v>
+      </c>
+      <c r="E176" s="5">
+        <f t="shared" si="27"/>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="F176" s="5">
+        <f t="shared" si="28"/>
+        <v>9.0333333333333332</v>
+      </c>
+      <c r="G176" s="5">
+        <f t="shared" si="29"/>
+        <v>8.9</v>
+      </c>
+      <c r="I176" s="3">
+        <f t="shared" si="24"/>
+        <v>2709.333333333333</v>
+      </c>
+      <c r="J176" s="3"/>
+      <c r="K176" s="3"/>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B177">
+        <v>329</v>
+      </c>
+      <c r="C177" s="1">
+        <v>285</v>
+      </c>
+      <c r="D177" s="4">
+        <v>278</v>
+      </c>
+      <c r="E177" s="5">
+        <f t="shared" si="27"/>
+        <v>10.966666666666667</v>
+      </c>
+      <c r="F177" s="5">
+        <f t="shared" si="28"/>
+        <v>9.5</v>
+      </c>
+      <c r="G177" s="5">
+        <f t="shared" si="29"/>
+        <v>9.2666666666666675</v>
+      </c>
+      <c r="I177" s="3">
+        <f t="shared" si="24"/>
+        <v>2785.5333333333333</v>
+      </c>
+      <c r="K177" s="3"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>82</v>
+      </c>
+      <c r="B179">
+        <v>357680</v>
+      </c>
+      <c r="C179" s="1">
+        <v>1156197</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>81</v>
+      </c>
+      <c r="B180">
+        <v>17681</v>
+      </c>
+      <c r="C180" s="1">
+        <v>121609</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B181" s="2">
+        <f>1-(B180/B179)</f>
+        <v>0.95056754641019903</v>
+      </c>
+      <c r="C181" s="2">
+        <f>1-(C180/C179)</f>
+        <v>0.89481982741695398</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>83</v>
+      </c>
+      <c r="B183">
+        <v>191465</v>
+      </c>
+      <c r="C183" s="1">
+        <v>1191074</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B184">
+        <v>9464</v>
+      </c>
+      <c r="C184" s="1">
+        <v>118945</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B185" s="2">
+        <f>1-(B184/B183)</f>
+        <v>0.95057060037082497</v>
+      </c>
+      <c r="C185" s="2">
+        <f>1-(C184/C183)</f>
+        <v>0.90013634753172345</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B191">
+        <v>1577090</v>
+      </c>
+      <c r="C191" s="1">
+        <v>1182119</v>
+      </c>
+      <c r="D191" s="2">
+        <f>C191/B191</f>
+        <v>0.74955709566353224</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B192">
+        <v>1476188</v>
+      </c>
+      <c r="C192" s="1">
+        <v>1114233</v>
+      </c>
+      <c r="D192" s="2">
+        <f>C192/B192</f>
+        <v>0.75480426612328511</v>
+      </c>
+    </row>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B194">
+        <v>4037321</v>
+      </c>
+      <c r="C194" s="1">
+        <v>1267009</v>
+      </c>
+      <c r="D194" s="2">
+        <f>C194/B194</f>
+        <v>0.31382419183413951</v>
+      </c>
+    </row>
+    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B197">
+        <v>4355914</v>
+      </c>
+      <c r="C197" s="1">
+        <v>2371658</v>
+      </c>
+      <c r="D197" s="2">
+        <f>C197/B197</f>
+        <v>0.54446850879057762</v>
       </c>
     </row>
   </sheetData>

--- a/P3DFps.xlsx
+++ b/P3DFps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\Potato3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844B30B5-D21C-46C5-B9B8-343CA1B22040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3505EDA8-0661-49AF-A6A8-4CAC7BC7439C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2904C00D-6B2E-49C9-A39A-1A4D989C3045}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="94">
   <si>
     <t>BSP</t>
   </si>
@@ -305,6 +305,9 @@
   </si>
   <si>
     <t>No early reject</t>
+  </si>
+  <si>
+    <t>Y Perspective Correct.</t>
   </si>
 </sst>
 </file>
@@ -666,10 +669,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9F04DC-EF96-45BA-9879-6DBCF76CA793}">
-  <dimension ref="A1:K197"/>
+  <dimension ref="A1:K201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="E177" sqref="E177"/>
+      <selection activeCell="E180" sqref="E180:G180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3007,7 +3010,7 @@
         <v>8.9333333333333336</v>
       </c>
       <c r="I170" s="3">
-        <f t="shared" ref="I170:I177" si="24">E170*254</f>
+        <f t="shared" ref="I170:I182" si="24">E170*254</f>
         <v>2641.6</v>
       </c>
       <c r="J170" s="3">
@@ -3156,7 +3159,7 @@
         <v>229</v>
       </c>
       <c r="E175" s="5">
-        <f t="shared" ref="E175:E177" si="27">B175/30</f>
+        <f t="shared" ref="E175:E181" si="27">B175/30</f>
         <v>10.333333333333334</v>
       </c>
       <c r="F175" s="5">
@@ -3238,116 +3241,207 @@
       <c r="K177" s="3"/>
     </row>
     <row r="178" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A178" t="s">
-        <v>80</v>
-      </c>
+      <c r="D178" s="4"/>
+      <c r="E178" s="5"/>
+      <c r="F178" s="5"/>
+      <c r="G178" s="5"/>
+      <c r="I178" s="3"/>
+      <c r="K178" s="3"/>
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B179">
-        <v>357680</v>
+        <v>240</v>
       </c>
       <c r="C179" s="1">
-        <v>1156197</v>
-      </c>
+        <v>203</v>
+      </c>
+      <c r="D179" s="4">
+        <v>201</v>
+      </c>
+      <c r="E179" s="5">
+        <f t="shared" si="27"/>
+        <v>8</v>
+      </c>
+      <c r="F179" s="5">
+        <f t="shared" ref="F179:F181" si="30">C179/30</f>
+        <v>6.7666666666666666</v>
+      </c>
+      <c r="G179" s="5">
+        <f t="shared" ref="G179:G181" si="31">D179/30</f>
+        <v>6.7</v>
+      </c>
+      <c r="I179" s="3"/>
+      <c r="K179" s="3"/>
     </row>
     <row r="180" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A180" t="s">
-        <v>81</v>
-      </c>
       <c r="B180">
-        <v>17681</v>
+        <v>342</v>
       </c>
       <c r="C180" s="1">
-        <v>121609</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="D180" s="4">
+        <v>288</v>
+      </c>
+      <c r="E180" s="5">
+        <f t="shared" si="27"/>
+        <v>11.4</v>
+      </c>
+      <c r="F180" s="5">
+        <f t="shared" si="30"/>
+        <v>9.9333333333333336</v>
+      </c>
+      <c r="G180" s="5">
+        <f t="shared" si="31"/>
+        <v>9.6</v>
+      </c>
+      <c r="I180" s="3"/>
+      <c r="K180" s="3"/>
     </row>
     <row r="181" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B181" s="2">
-        <f>1-(B180/B179)</f>
-        <v>0.95056754641019903</v>
-      </c>
-      <c r="C181" s="2">
-        <f>1-(C180/C179)</f>
-        <v>0.89481982741695398</v>
+      <c r="B181">
+        <v>347</v>
+      </c>
+      <c r="C181" s="1">
+        <v>304</v>
+      </c>
+      <c r="D181" s="4">
+        <v>296</v>
+      </c>
+      <c r="E181" s="5">
+        <f t="shared" si="27"/>
+        <v>11.566666666666666</v>
+      </c>
+      <c r="F181" s="5">
+        <f t="shared" si="30"/>
+        <v>10.133333333333333</v>
+      </c>
+      <c r="G181" s="5">
+        <f t="shared" si="31"/>
+        <v>9.8666666666666671</v>
+      </c>
+      <c r="I181" s="3"/>
+      <c r="K181" s="3"/>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>80</v>
+      </c>
+      <c r="E182" s="5"/>
+      <c r="I182" s="3">
+        <f t="shared" si="24"/>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B183">
-        <v>191465</v>
+        <v>357680</v>
       </c>
       <c r="C183" s="1">
-        <v>1191074</v>
+        <v>1156197</v>
       </c>
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>81</v>
+      </c>
       <c r="B184">
-        <v>9464</v>
+        <v>17681</v>
       </c>
       <c r="C184" s="1">
-        <v>118945</v>
+        <v>121609</v>
       </c>
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B185" s="2">
         <f>1-(B184/B183)</f>
-        <v>0.95057060037082497</v>
+        <v>0.95056754641019903</v>
       </c>
       <c r="C185" s="2">
         <f>1-(C184/C183)</f>
+        <v>0.89481982741695398</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>83</v>
+      </c>
+      <c r="B187">
+        <v>191465</v>
+      </c>
+      <c r="C187" s="1">
+        <v>1191074</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B188">
+        <v>9464</v>
+      </c>
+      <c r="C188" s="1">
+        <v>118945</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B189" s="2">
+        <f>1-(B188/B187)</f>
+        <v>0.95057060037082497</v>
+      </c>
+      <c r="C189" s="2">
+        <f>1-(C188/C187)</f>
         <v>0.90013634753172345</v>
       </c>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B191">
+    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B195">
         <v>1577090</v>
       </c>
-      <c r="C191" s="1">
+      <c r="C195" s="1">
         <v>1182119</v>
       </c>
-      <c r="D191" s="2">
-        <f>C191/B191</f>
+      <c r="D195" s="2">
+        <f>C195/B195</f>
         <v>0.74955709566353224</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B192">
+    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B196">
         <v>1476188</v>
       </c>
-      <c r="C192" s="1">
+      <c r="C196" s="1">
         <v>1114233</v>
       </c>
-      <c r="D192" s="2">
-        <f>C192/B192</f>
+      <c r="D196" s="2">
+        <f>C196/B196</f>
         <v>0.75480426612328511</v>
       </c>
     </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B194">
+    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B198">
         <v>4037321</v>
       </c>
-      <c r="C194" s="1">
+      <c r="C198" s="1">
         <v>1267009</v>
       </c>
-      <c r="D194" s="2">
-        <f>C194/B194</f>
+      <c r="D198" s="2">
+        <f>C198/B198</f>
         <v>0.31382419183413951</v>
       </c>
     </row>
-    <row r="197" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B197">
+    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B201">
         <v>4355914</v>
       </c>
-      <c r="C197" s="1">
+      <c r="C201" s="1">
         <v>2371658</v>
       </c>
-      <c r="D197" s="2">
-        <f>C197/B197</f>
+      <c r="D201" s="2">
+        <f>C201/B201</f>
         <v>0.54446850879057762</v>
       </c>
     </row>

--- a/P3DFps.xlsx
+++ b/P3DFps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\Potato3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3505EDA8-0661-49AF-A6A8-4CAC7BC7439C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B4FAB9-C530-4922-B096-0B087733DC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{2904C00D-6B2E-49C9-A39A-1A4D989C3045}"/>
+    <workbookView xWindow="4230" yWindow="2820" windowWidth="21570" windowHeight="11370" xr2:uid="{2904C00D-6B2E-49C9-A39A-1A4D989C3045}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="97">
   <si>
     <t>BSP</t>
   </si>
@@ -308,6 +308,15 @@
   </si>
   <si>
     <t>Y Perspective Correct.</t>
+  </si>
+  <si>
+    <t>Early DUV</t>
+  </si>
+  <si>
+    <t>Early FB Y</t>
+  </si>
+  <si>
+    <t>Pack UV</t>
   </si>
 </sst>
 </file>
@@ -669,10 +678,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9F04DC-EF96-45BA-9879-6DBCF76CA793}">
-  <dimension ref="A1:K201"/>
+  <dimension ref="A1:K206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="E180" sqref="E180:G180"/>
+    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
+      <selection activeCell="B185" sqref="B185"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3010,7 +3019,7 @@
         <v>8.9333333333333336</v>
       </c>
       <c r="I170" s="3">
-        <f t="shared" ref="I170:I182" si="24">E170*254</f>
+        <f t="shared" ref="I170:I187" si="24">E170*254</f>
         <v>2641.6</v>
       </c>
       <c r="J170" s="3">
@@ -3327,121 +3336,204 @@
       <c r="K181" s="3"/>
     </row>
     <row r="182" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="D182" s="4"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5"/>
+      <c r="G182" s="5"/>
+      <c r="I182" s="3"/>
+      <c r="K182" s="3"/>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>94</v>
+      </c>
+      <c r="B183">
+        <v>349</v>
+      </c>
+      <c r="C183" s="1">
+        <v>304</v>
+      </c>
+      <c r="D183" s="4">
+        <v>292</v>
+      </c>
+      <c r="E183" s="5">
+        <f t="shared" ref="E183:E184" si="32">B183/30</f>
+        <v>11.633333333333333</v>
+      </c>
+      <c r="F183" s="5">
+        <f t="shared" ref="F183:F184" si="33">C183/30</f>
+        <v>10.133333333333333</v>
+      </c>
+      <c r="G183" s="5">
+        <f t="shared" ref="G183:G184" si="34">D183/30</f>
+        <v>9.7333333333333325</v>
+      </c>
+      <c r="I183" s="3"/>
+      <c r="K183" s="3"/>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>95</v>
+      </c>
+      <c r="B184">
+        <v>345</v>
+      </c>
+      <c r="C184" s="1">
+        <v>302</v>
+      </c>
+      <c r="D184" s="4">
+        <v>288</v>
+      </c>
+      <c r="E184" s="5">
+        <f t="shared" si="32"/>
+        <v>11.5</v>
+      </c>
+      <c r="F184" s="5">
+        <f t="shared" si="33"/>
+        <v>10.066666666666666</v>
+      </c>
+      <c r="G184" s="5">
+        <f t="shared" si="34"/>
+        <v>9.6</v>
+      </c>
+      <c r="I184" s="3"/>
+      <c r="K184" s="3"/>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>96</v>
+      </c>
+      <c r="D185" s="4"/>
+      <c r="E185" s="5"/>
+      <c r="F185" s="5"/>
+      <c r="G185" s="5"/>
+      <c r="I185" s="3"/>
+      <c r="K185" s="3"/>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D186" s="4"/>
+      <c r="E186" s="5"/>
+      <c r="F186" s="5"/>
+      <c r="G186" s="5"/>
+      <c r="I186" s="3"/>
+      <c r="K186" s="3"/>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>80</v>
       </c>
-      <c r="E182" s="5"/>
-      <c r="I182" s="3">
+      <c r="E187" s="5"/>
+      <c r="I187" s="3">
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A183" t="s">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
         <v>82</v>
       </c>
-      <c r="B183">
+      <c r="B188">
         <v>357680</v>
       </c>
-      <c r="C183" s="1">
+      <c r="C188" s="1">
         <v>1156197</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A184" t="s">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
         <v>81</v>
       </c>
-      <c r="B184">
+      <c r="B189">
         <v>17681</v>
       </c>
-      <c r="C184" s="1">
+      <c r="C189" s="1">
         <v>121609</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B185" s="2">
-        <f>1-(B184/B183)</f>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B190" s="2">
+        <f>1-(B189/B188)</f>
         <v>0.95056754641019903</v>
       </c>
-      <c r="C185" s="2">
-        <f>1-(C184/C183)</f>
+      <c r="C190" s="2">
+        <f>1-(C189/C188)</f>
         <v>0.89481982741695398</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
         <v>83</v>
       </c>
-      <c r="B187">
+      <c r="B192">
         <v>191465</v>
       </c>
-      <c r="C187" s="1">
+      <c r="C192" s="1">
         <v>1191074</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B188">
+    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B193">
         <v>9464</v>
       </c>
-      <c r="C188" s="1">
+      <c r="C193" s="1">
         <v>118945</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B189" s="2">
-        <f>1-(B188/B187)</f>
+    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B194" s="2">
+        <f>1-(B193/B192)</f>
         <v>0.95057060037082497</v>
       </c>
-      <c r="C189" s="2">
-        <f>1-(C188/C187)</f>
+      <c r="C194" s="2">
+        <f>1-(C193/C192)</f>
         <v>0.90013634753172345</v>
       </c>
     </row>
-    <row r="195" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B195">
+    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B200">
         <v>1577090</v>
       </c>
-      <c r="C195" s="1">
+      <c r="C200" s="1">
         <v>1182119</v>
       </c>
-      <c r="D195" s="2">
-        <f>C195/B195</f>
+      <c r="D200" s="2">
+        <f>C200/B200</f>
         <v>0.74955709566353224</v>
-      </c>
-    </row>
-    <row r="196" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B196">
-        <v>1476188</v>
-      </c>
-      <c r="C196" s="1">
-        <v>1114233</v>
-      </c>
-      <c r="D196" s="2">
-        <f>C196/B196</f>
-        <v>0.75480426612328511</v>
-      </c>
-    </row>
-    <row r="198" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B198">
-        <v>4037321</v>
-      </c>
-      <c r="C198" s="1">
-        <v>1267009</v>
-      </c>
-      <c r="D198" s="2">
-        <f>C198/B198</f>
-        <v>0.31382419183413951</v>
       </c>
     </row>
     <row r="201" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B201">
-        <v>4355914</v>
+        <v>1476188</v>
       </c>
       <c r="C201" s="1">
-        <v>2371658</v>
+        <v>1114233</v>
       </c>
       <c r="D201" s="2">
         <f>C201/B201</f>
+        <v>0.75480426612328511</v>
+      </c>
+    </row>
+    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B203">
+        <v>4037321</v>
+      </c>
+      <c r="C203" s="1">
+        <v>1267009</v>
+      </c>
+      <c r="D203" s="2">
+        <f>C203/B203</f>
+        <v>0.31382419183413951</v>
+      </c>
+    </row>
+    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B206">
+        <v>4355914</v>
+      </c>
+      <c r="C206" s="1">
+        <v>2371658</v>
+      </c>
+      <c r="D206" s="2">
+        <f>C206/B206</f>
         <v>0.54446850879057762</v>
       </c>
     </row>

--- a/P3DFps.xlsx
+++ b/P3DFps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\Potato3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71B4FAB9-C530-4922-B096-0B087733DC37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F71698-B833-4F22-9744-7AC5499051F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="4230" yWindow="2820" windowWidth="21570" windowHeight="11370" xr2:uid="{2904C00D-6B2E-49C9-A39A-1A4D989C3045}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="95">
   <si>
     <t>BSP</t>
   </si>
@@ -268,18 +268,6 @@
     <t>240X160</t>
   </si>
   <si>
-    <t xml:space="preserve">Cache </t>
-  </si>
-  <si>
-    <t>Misses</t>
-  </si>
-  <si>
-    <t>Peeks</t>
-  </si>
-  <si>
-    <t>Sorted Nodes</t>
-  </si>
-  <si>
     <t>16x</t>
   </si>
   <si>
@@ -317,6 +305,12 @@
   </si>
   <si>
     <t>Pack UV</t>
+  </si>
+  <si>
+    <t>No Texture</t>
+  </si>
+  <si>
+    <t>Read Byte Video</t>
   </si>
 </sst>
 </file>
@@ -678,10 +672,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9F04DC-EF96-45BA-9879-6DBCF76CA793}">
-  <dimension ref="A1:K206"/>
+  <dimension ref="A1:K201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="B185" sqref="B185"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="B173" sqref="B173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2849,7 +2843,7 @@
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B164">
         <v>366</v>
@@ -2875,7 +2869,7 @@
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B165">
         <v>355</v>
@@ -2901,7 +2895,7 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="B166">
         <v>359</v>
@@ -2957,7 +2951,7 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B169">
         <v>295</v>
@@ -2995,7 +2989,7 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B170">
         <v>312</v>
@@ -3019,7 +3013,7 @@
         <v>8.9333333333333336</v>
       </c>
       <c r="I170" s="3">
-        <f t="shared" ref="I170:I187" si="24">E170*254</f>
+        <f t="shared" ref="I170:I177" si="24">E170*254</f>
         <v>2641.6</v>
       </c>
       <c r="J170" s="3">
@@ -3033,7 +3027,7 @@
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B171">
         <v>279</v>
@@ -3071,7 +3065,7 @@
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="B172">
         <v>322</v>
@@ -3109,7 +3103,7 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B173">
         <v>284</v>
@@ -3156,7 +3150,7 @@
     </row>
     <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B175">
         <v>310</v>
@@ -3259,7 +3253,7 @@
     </row>
     <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B179">
         <v>240</v>
@@ -3345,7 +3339,7 @@
     </row>
     <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="B183">
         <v>349</v>
@@ -3357,15 +3351,15 @@
         <v>292</v>
       </c>
       <c r="E183" s="5">
-        <f t="shared" ref="E183:E184" si="32">B183/30</f>
+        <f t="shared" ref="E183:E186" si="32">B183/30</f>
         <v>11.633333333333333</v>
       </c>
       <c r="F183" s="5">
-        <f t="shared" ref="F183:F184" si="33">C183/30</f>
+        <f t="shared" ref="F183:F186" si="33">C183/30</f>
         <v>10.133333333333333</v>
       </c>
       <c r="G183" s="5">
-        <f t="shared" ref="G183:G184" si="34">D183/30</f>
+        <f t="shared" ref="G183:G186" si="34">D183/30</f>
         <v>9.7333333333333325</v>
       </c>
       <c r="I183" s="3"/>
@@ -3373,7 +3367,7 @@
     </row>
     <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="B184">
         <v>345</v>
@@ -3401,141 +3395,203 @@
     </row>
     <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>96</v>
-      </c>
-      <c r="D185" s="4"/>
-      <c r="E185" s="5"/>
-      <c r="F185" s="5"/>
-      <c r="G185" s="5"/>
+        <v>92</v>
+      </c>
+      <c r="B185">
+        <v>357</v>
+      </c>
+      <c r="C185" s="1">
+        <v>313</v>
+      </c>
+      <c r="D185" s="4">
+        <v>302</v>
+      </c>
+      <c r="E185" s="5">
+        <f t="shared" si="32"/>
+        <v>11.9</v>
+      </c>
+      <c r="F185" s="5">
+        <f t="shared" si="33"/>
+        <v>10.433333333333334</v>
+      </c>
+      <c r="G185" s="5">
+        <f t="shared" si="34"/>
+        <v>10.066666666666666</v>
+      </c>
       <c r="I185" s="3"/>
       <c r="K185" s="3"/>
     </row>
     <row r="186" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D186" s="4"/>
-      <c r="E186" s="5"/>
-      <c r="F186" s="5"/>
-      <c r="G186" s="5"/>
+      <c r="B186">
+        <v>358</v>
+      </c>
+      <c r="C186" s="1">
+        <v>315</v>
+      </c>
+      <c r="D186" s="4">
+        <v>302</v>
+      </c>
+      <c r="E186" s="5">
+        <f t="shared" si="32"/>
+        <v>11.933333333333334</v>
+      </c>
+      <c r="F186" s="5">
+        <f t="shared" si="33"/>
+        <v>10.5</v>
+      </c>
+      <c r="G186" s="5">
+        <f t="shared" si="34"/>
+        <v>10.066666666666666</v>
+      </c>
       <c r="I186" s="3"/>
       <c r="K186" s="3"/>
     </row>
     <row r="187" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A187" t="s">
-        <v>80</v>
-      </c>
       <c r="E187" s="5"/>
-      <c r="I187" s="3">
-        <f t="shared" si="24"/>
-        <v>0</v>
-      </c>
+      <c r="F187" s="5"/>
+      <c r="G187" s="5"/>
     </row>
     <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="B188">
-        <v>357680</v>
+        <v>519</v>
       </c>
       <c r="C188" s="1">
-        <v>1156197</v>
+        <v>476</v>
+      </c>
+      <c r="D188" s="4">
+        <v>439</v>
+      </c>
+      <c r="E188" s="5">
+        <f t="shared" ref="E188" si="35">B188/30</f>
+        <v>17.3</v>
+      </c>
+      <c r="F188" s="5">
+        <f t="shared" ref="F188" si="36">C188/30</f>
+        <v>15.866666666666667</v>
+      </c>
+      <c r="G188" s="5">
+        <f t="shared" ref="G188" si="37">D188/30</f>
+        <v>14.633333333333333</v>
       </c>
     </row>
     <row r="189" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A189" t="s">
-        <v>81</v>
-      </c>
-      <c r="B189">
-        <v>17681</v>
-      </c>
-      <c r="C189" s="1">
-        <v>121609</v>
-      </c>
+      <c r="E189" s="5"/>
+      <c r="F189" s="5"/>
+      <c r="G189" s="5"/>
     </row>
     <row r="190" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B190" s="2">
-        <f>1-(B189/B188)</f>
-        <v>0.95056754641019903</v>
-      </c>
-      <c r="C190" s="2">
-        <f>1-(C189/C188)</f>
-        <v>0.89481982741695398</v>
+      <c r="A190" t="s">
+        <v>6</v>
+      </c>
+      <c r="B190" s="4">
+        <v>363</v>
+      </c>
+      <c r="C190" s="4">
+        <v>320</v>
+      </c>
+      <c r="D190" s="4">
+        <v>307</v>
+      </c>
+      <c r="E190" s="5">
+        <f t="shared" ref="E189:E190" si="38">B190/30</f>
+        <v>12.1</v>
+      </c>
+      <c r="F190" s="5">
+        <f t="shared" ref="F189:F190" si="39">C190/30</f>
+        <v>10.666666666666666</v>
+      </c>
+      <c r="G190" s="5">
+        <f t="shared" ref="G189:G190" si="40">D190/30</f>
+        <v>10.233333333333333</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>94</v>
+      </c>
+      <c r="B191">
+        <v>363</v>
+      </c>
+      <c r="C191" s="4">
+        <v>321</v>
+      </c>
+      <c r="D191" s="4">
+        <v>307</v>
+      </c>
+      <c r="E191" s="5">
+        <f t="shared" ref="E191:E192" si="41">B191/30</f>
+        <v>12.1</v>
+      </c>
+      <c r="F191" s="5">
+        <f t="shared" ref="F191:F192" si="42">C191/30</f>
+        <v>10.7</v>
+      </c>
+      <c r="G191" s="5">
+        <f t="shared" ref="G191:G192" si="43">D191/30</f>
+        <v>10.233333333333333</v>
       </c>
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A192" t="s">
-        <v>83</v>
-      </c>
       <c r="B192">
-        <v>191465</v>
-      </c>
-      <c r="C192" s="1">
-        <v>1191074</v>
-      </c>
-    </row>
-    <row r="193" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B193">
-        <v>9464</v>
-      </c>
-      <c r="C193" s="1">
-        <v>118945</v>
-      </c>
-    </row>
-    <row r="194" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B194" s="2">
-        <f>1-(B193/B192)</f>
-        <v>0.95057060037082497</v>
-      </c>
-      <c r="C194" s="2">
-        <f>1-(C193/C192)</f>
-        <v>0.90013634753172345</v>
-      </c>
-    </row>
-    <row r="200" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B200">
-        <v>1577090</v>
-      </c>
-      <c r="C200" s="1">
-        <v>1182119</v>
-      </c>
-      <c r="D200" s="2">
-        <f>C200/B200</f>
-        <v>0.74955709566353224</v>
-      </c>
-    </row>
-    <row r="201" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B201">
-        <v>1476188</v>
-      </c>
-      <c r="C201" s="1">
-        <v>1114233</v>
-      </c>
-      <c r="D201" s="2">
-        <f>C201/B201</f>
-        <v>0.75480426612328511</v>
-      </c>
-    </row>
-    <row r="203" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B203">
-        <v>4037321</v>
-      </c>
-      <c r="C203" s="1">
-        <v>1267009</v>
-      </c>
-      <c r="D203" s="2">
-        <f>C203/B203</f>
-        <v>0.31382419183413951</v>
-      </c>
-    </row>
-    <row r="206" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B206">
-        <v>4355914</v>
-      </c>
-      <c r="C206" s="1">
-        <v>2371658</v>
-      </c>
-      <c r="D206" s="2">
-        <f>C206/B206</f>
-        <v>0.54446850879057762</v>
-      </c>
+        <v>366</v>
+      </c>
+      <c r="C192" s="4">
+        <v>325</v>
+      </c>
+      <c r="D192" s="4">
+        <v>309</v>
+      </c>
+      <c r="E192" s="5">
+        <f t="shared" si="41"/>
+        <v>12.2</v>
+      </c>
+      <c r="F192" s="5">
+        <f t="shared" si="42"/>
+        <v>10.833333333333334</v>
+      </c>
+      <c r="G192" s="5">
+        <f t="shared" si="43"/>
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="193" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C193"/>
+      <c r="D193"/>
+    </row>
+    <row r="194" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C194"/>
+      <c r="D194"/>
+    </row>
+    <row r="195" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C195"/>
+      <c r="D195"/>
+    </row>
+    <row r="196" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C196"/>
+      <c r="D196"/>
+    </row>
+    <row r="197" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C197"/>
+      <c r="D197"/>
+    </row>
+    <row r="198" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C198"/>
+      <c r="D198"/>
+    </row>
+    <row r="199" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C199"/>
+      <c r="D199"/>
+    </row>
+    <row r="200" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C200"/>
+      <c r="D200"/>
+    </row>
+    <row r="201" spans="3:4" x14ac:dyDescent="0.25">
+      <c r="C201"/>
+      <c r="D201"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/P3DFps.xlsx
+++ b/P3DFps.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\Potato3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F71698-B833-4F22-9744-7AC5499051F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6CB323-A9A9-4EFA-9755-C03511760D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4230" yWindow="2820" windowWidth="21570" windowHeight="11370" xr2:uid="{2904C00D-6B2E-49C9-A39A-1A4D989C3045}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2904C00D-6B2E-49C9-A39A-1A4D989C3045}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,12 +21,19 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="99">
   <si>
     <t>BSP</t>
   </si>
@@ -311,6 +318,18 @@
   </si>
   <si>
     <t>Read Byte Video</t>
+  </si>
+  <si>
+    <t>Affine</t>
+  </si>
+  <si>
+    <t>Near PC</t>
+  </si>
+  <si>
+    <t>Heuristic PC</t>
+  </si>
+  <si>
+    <t>Heuristic PC 2</t>
   </si>
 </sst>
 </file>
@@ -672,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9F04DC-EF96-45BA-9879-6DBCF76CA793}">
-  <dimension ref="A1:K201"/>
+  <dimension ref="A1:K200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="B173" sqref="B173"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="C200" sqref="C200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3496,15 +3515,15 @@
         <v>307</v>
       </c>
       <c r="E190" s="5">
-        <f t="shared" ref="E189:E190" si="38">B190/30</f>
+        <f t="shared" ref="E190" si="38">B190/30</f>
         <v>12.1</v>
       </c>
       <c r="F190" s="5">
-        <f t="shared" ref="F189:F190" si="39">C190/30</f>
+        <f t="shared" ref="F190" si="39">C190/30</f>
         <v>10.666666666666666</v>
       </c>
       <c r="G190" s="5">
-        <f t="shared" ref="G189:G190" si="40">D190/30</f>
+        <f t="shared" ref="G190" si="40">D190/30</f>
         <v>10.233333333333333</v>
       </c>
     </row>
@@ -3557,41 +3576,97 @@
         <v>10.3</v>
       </c>
     </row>
-    <row r="193" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C193"/>
       <c r="D193"/>
     </row>
-    <row r="194" spans="3:4" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C194"/>
       <c r="D194"/>
     </row>
-    <row r="195" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C195"/>
-      <c r="D195"/>
-    </row>
-    <row r="196" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C196"/>
-      <c r="D196"/>
-    </row>
-    <row r="197" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C197"/>
-      <c r="D197"/>
-    </row>
-    <row r="198" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C198"/>
-      <c r="D198"/>
-    </row>
-    <row r="199" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C199"/>
-      <c r="D199"/>
-    </row>
-    <row r="200" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C200"/>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>95</v>
+      </c>
+      <c r="B195">
+        <v>332</v>
+      </c>
+      <c r="C195" s="5">
+        <f>B195/30</f>
+        <v>11.066666666666666</v>
+      </c>
+      <c r="D195" s="2">
+        <f>C195/C195</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>20</v>
+      </c>
+      <c r="B196">
+        <v>276</v>
+      </c>
+      <c r="C196" s="5">
+        <f>B196/30</f>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D196" s="2">
+        <f>C196/C195</f>
+        <v>0.83132530120481918</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>96</v>
+      </c>
+      <c r="B197">
+        <v>311</v>
+      </c>
+      <c r="C197" s="5">
+        <f>B197/30</f>
+        <v>10.366666666666667</v>
+      </c>
+      <c r="D197" s="2">
+        <f>C197/C195</f>
+        <v>0.93674698795180733</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>97</v>
+      </c>
+      <c r="B198">
+        <v>309</v>
+      </c>
+      <c r="C198" s="5">
+        <f>B198/30</f>
+        <v>10.3</v>
+      </c>
+      <c r="D198" s="2">
+        <f>C198/C195</f>
+        <v>0.9307228915662652</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>98</v>
+      </c>
+      <c r="B199">
+        <v>311</v>
+      </c>
+      <c r="C199" s="5">
+        <f>B199/30</f>
+        <v>10.366666666666667</v>
+      </c>
+      <c r="D199" s="2">
+        <f>C199/C195</f>
+        <v>0.93674698795180733</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C200" s="5"/>
       <c r="D200"/>
-    </row>
-    <row r="201" spans="3:4" x14ac:dyDescent="0.25">
-      <c r="C201"/>
-      <c r="D201"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/P3DFps.xlsx
+++ b/P3DFps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zak\Documents\GitProjects\Potato3d\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6CB323-A9A9-4EFA-9755-C03511760D19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B973B246-E1FB-4F79-9362-60EFFD7773E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2904C00D-6B2E-49C9-A39A-1A4D989C3045}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="100">
   <si>
     <t>BSP</t>
   </si>
@@ -330,6 +330,9 @@
   </si>
   <si>
     <t>Heuristic PC 2</t>
+  </si>
+  <si>
+    <t>Copy functions</t>
   </si>
 </sst>
 </file>
@@ -691,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9F04DC-EF96-45BA-9879-6DBCF76CA793}">
-  <dimension ref="A1:K200"/>
+  <dimension ref="A1:K201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
-      <selection activeCell="C200" sqref="C200"/>
+      <selection activeCell="D202" sqref="D202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3666,7 +3669,22 @@
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C200" s="5"/>
-      <c r="D200"/>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>99</v>
+      </c>
+      <c r="B201">
+        <v>264</v>
+      </c>
+      <c r="C201" s="5">
+        <f t="shared" ref="C200:C201" si="44">B201/30</f>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D201" s="2">
+        <f>C201/C195</f>
+        <v>0.79518072289156638</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
